--- a/docs/書籍資料.xlsx
+++ b/docs/書籍資料.xlsx
@@ -11,16 +11,11 @@
     <sheet name="工作表2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="CC5sDJCtzhguAe8gDKHRnhoCLdl1qpXkiYeA+W2SEyE="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="281">
   <si>
     <t>ISBN</t>
   </si>
@@ -379,14 +374,6 @@
     <t>石心寺</t>
   </si>
   <si>
-    <t>紅樓夢哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>知返</t>
   </si>
   <si>
@@ -402,14 +389,6 @@
     <t>黃問游</t>
   </si>
   <si>
-    <t>三國演義哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczM6GitAYhwBCR1iZqaL4aEx2LScTRzc8y6HyyqZVlKWmM76hMaoIoHJkW-YJxlgdx6-KB3BuOJF4nhGnp1g4GihtLZ8Uef4d_l9aCB43Kn28KttPebICmHR6G6HjoMhRloz9d0awUFYcwn_ZvuhCRjp=w428-h538-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -420,14 +399,6 @@
   </si>
   <si>
     <t>兆品力</t>
-  </si>
-  <si>
-    <t>AI淘汰人類哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczOL9qk-Itdu8R7oLIlHxavcrxOSBj2_-hMM7D8WWzeHY8DWt9bWdzLKaSkl_5B02OOd9EchNSMHkU348u0r4LTkAwVf12NL4VVsWeAFWxCwEmRjUmvK4a1BEW-RkE6GXfA_emo1GzzcXLbbt0OqL5E3=w425-h540-s-no-gm?authuser=0</t>
@@ -442,14 +413,6 @@
     <t>常遠卜兒</t>
   </si>
   <si>
-    <t>大新浣哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczPlwoUJ6FbyU7wYDEGY-Nmx28MxEPMKUMSk37MyF4O_xX6XRQKoi8_uGu-3mUaPTg1fjPrmCCnB_0_qvUH7WCOCK7hvC-IADxaV4tYjwPq__HftYKJrzbzaz6ysHoIyeQ1Zj3sDOa9rEn8HoMWpYhLv=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -460,14 +423,6 @@
   </si>
   <si>
     <t>秋葉戊</t>
-  </si>
-  <si>
-    <t>騭菓哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNahsjrAx0sxHiMxkJIcQYWRGfA5WeZGMEKnZrFSiC6l6wgDkyYsjOkwVWr8ZWsRdBQq9itl70w7hCeRE0yiOXi6NLVBoXme_ns7GD3UYZrCrvTDTdbNNQCs4x2C0HggkY9-A6Kg2NIaGO-KI5Ng7pQ=w460-h580-s-no-gm?authuser=0</t>
@@ -482,14 +437,6 @@
     <t>昔布祖</t>
   </si>
   <si>
-    <t>寒山呼喚哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczP4tSwO7MOhekudPQTa-Kj4BwGZSWRY1jK_gyEAk65LIN4Xj0D5tfGQQcIKWnvQdh56FtfNSInupOOgiObVvRJJjxtI_PTxtzu6OB27IaUzKdDhfJu9FcyeIqI0l5P4JSo05_Nb7aa9XEc_9inFsKn-=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -500,14 +447,6 @@
   </si>
   <si>
     <t>石村二</t>
-  </si>
-  <si>
-    <t>稻來帝哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNXc-_HLmLEAFRPQzekOqTdB1slxQGUNUdD3GiVl4hVOljHmuvfPMKQJspojAJfW6cT4Zn1euH4cxjnhjW7UAe9p8MrO6Qx7aQkE5eTwvWjB0KpAsoJFpj3Pu66AI4A_LegFOIjAFSB_5mvwVj980vi=w460-h580-s-no-gm?authuser=0</t>
@@ -522,14 +461,6 @@
     <t>即子她</t>
   </si>
   <si>
-    <t>舊石戲哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczP2P4mBbmfEctz9z3GhIHcCjqBlbk1Md39Js-qqv932sqkU3CacvjBk22PIOry55YBqUe1fCeEg-dg7IEJmDDEhN0N7cLwRUPuH9NHwbkynJi-O4sgFYLyiXefzX7GbU-O-0Ljf6bqG4zxncb79ZFow=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -540,14 +471,6 @@
   </si>
   <si>
     <t>兔幸和</t>
-  </si>
-  <si>
-    <t>墚由哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczOHMb9o34Xqa38-h0poahL0wngKLgeOfLcNbanwukIqQnTBu5_HnZsfBI6gBGAubmIEOMKHvp-1-zYiw4eMogdCSb0lgdjyyevnbTm_KO3A-Fj_teM6MDfhnO0lrXnPgoq4F6CLigCcXPRSXrV5hHcr=w460-h580-s-no-gm?authuser=0</t>
@@ -562,14 +485,6 @@
     <t>祖抓吃</t>
   </si>
   <si>
-    <t>水中泉涓哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczNGzZmS2g8XVsuAbL7vJy5d142k7pFlmxW978vl7IokzwTidV9nKAuGUeMOAwIVPrsx0B7o2MLnQIXm_WrYy4J5cddQQIJ0-qxhVtir2EFzl9vmD01geUDx7S7ZYVDg-mZD_wn_OK_LKCkAUzny76o9=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -580,14 +495,6 @@
   </si>
   <si>
     <t>因貓免</t>
-  </si>
-  <si>
-    <t>故林匙哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
   </si>
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczMAhi6C2stnXlZMXFtKMha-A8_W5js_irVj5a4ms44l2IvrVVpWZExln9yMBv1uBAb-zLiqaiGp_5ee9t6qfsH56AOCIffg7wvrROFqg8iNzh5KqUTd4lrRFTLsGSB5iv9-Jp_bhTTHU4nXj9fgHiYD=w460-h580-s-no-gm?authuser=0</t>
@@ -602,14 +509,6 @@
     <t>游良前</t>
   </si>
   <si>
-    <t>漠禪茅更雅哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczMrHzOMNEsK6Vs9UkvU2jeXGDtjWbrndrledLsOEfLoGBfLNqfwhf_MDtU2xkRItghHEW-vN2mhH4InWN6zgbg3uMJhebx5LeZKopzSWzaNBDKEfYXb1wueXduc7Nhh7AMUFdFaiC39GuCAIm3Nqbta=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
@@ -622,21 +521,10 @@
     <t>七還幾</t>
   </si>
   <si>
-    <t>漁捕哭蝶火固正歡申共羽和尾由
-節姐一物事。校里要金竹田杯朋助綠干歡找，登許樹還入休哪眼示時知邊休節才小嗎給高肖？相開位里。燈唱已停。\
-植根很害寸以知走山大毛。雪士裝去喜往室消路魚兌每實爪天棵果至。在友村。都樹公送化。雲裏相石拍已黃西哭因拍，抓良能相背英孝雪吃而假乍英習找月吃頁。七抱重象眼園小且共九地跑很怪几躲。
-夕荷南力月方收勿尾黃完往夕讀直化花北交。坡來屋右泉院禾弓；還雲兌虎十呢二很豆訴內貝高起麼筆筆「升力姐」瓜只時兔米畫乾會采刃的植呢乙果重？哪少位游頭平。
-鳥收者昌蝶了朵門胡寺故昌房爬：里故遠後菜害松婆己十美鴨記雲、杯這兄足才麼老跑父孝聲念師吉看丁冬飛細几，刀戊誰乾放兌戶，後杯百乍車哥戶。
-的言結第法得，水交工就屋視叫左花做。</t>
-  </si>
-  <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczOVZFlQhtKm_C-NHJk3hxrDOwVz2BkjKUB_FaZwLZrSgXXokWmslaeI3H7cHb7s_nMfRmbW-_UxtY1809Z4DIH0HYPTXIs2-PSs4bphtOahPYS6HP5EqeOEazP8TruC-yDicZlN7aYFSadk_-hmgTEZ=w460-h580-s-no-gm?authuser=0</t>
   </si>
   <si>
     <t>999-000-526729-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">文學類 </t>
   </si>
   <si>
     <t>若是明天我們會見面</t>
@@ -655,9 +543,6 @@
   </si>
   <si>
     <t>999-000-668871-0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">科學類 </t>
   </si>
   <si>
     <t>簡單易懂的電腦科學</t>
@@ -767,12 +652,222 @@
   <si>
     <t>https://lh3.googleusercontent.com/pw/AP1GczN5a7OkSdogNpG1rPI36-vX8QzP2f2vIRrM3dyCv4CeXyS6PBf9pBjM827-QC2xZiKkUPzy80JwNdqzabGcl3f3BYFQelAlZ6qbzGRHmT13jgTg-v5nrxLzzvKDVtB-6vaBAxUK4B_qVFgCpuooU3K8=w460-h580-s-no-gm?authuser=0</t>
   </si>
+  <si>
+    <t>這部經典小說以賈、史、王、薛四大家族的興衰為主線，描繪了一個鐘鳴鼎食、詩禮簪纓的貴族家庭由盛轉衰的歷史圖景。故事聚焦於賈寶玉與林黛玉、薛寶釵之間纏綿悱惻的愛情糾葛，以及大觀園中眾多閨閣女兒的悲歡離合。曹雪芹以精湛的筆法，塑造了賈寶玉的叛逆與深情、林黛玉的敏感與才華、薛寶釵的端莊與世故等一系列鮮活的人物形象。書中不僅細緻入微地展現了清代社會的風俗人情、飲食服飾、詩詞歌賦，更深刻揭示了封建社會的弊端與人性的複雜多變。這是一部百科全書式的巨著，</t>
+  </si>
+  <si>
+    <t>《三國演義》是一部波瀾壯闊的歷史演義小說，講述了東漢末年，天下大亂，魏、蜀、吳三國鼎立，最終歸晉的近百年歷史。本書以劉備、關羽、張飛桃園結義為開端，透過一系列經典戰役和智謀對決，如官渡之戰、赤壁之戰、空城計等，展現了曹操、劉備、孫權等各路英雄豪傑的雄才大略與爾虞我詐。書中不僅刻畫了眾多傳奇人物的鮮明個性，更蘊含著豐富的軍事策略、政治權謀和人生哲理。它既是歷史的縮影，也是一部對忠義、背叛、智慧與勇氣進行深度探討的巨著，引領讀者領略那個風雲變幻的時代。</t>
+  </si>
+  <si>
+    <t>這是一部引人深思的未來學著作，探討了人工智能快速發展對人類社會可能產生的顛覆性影響。本書深入剖析了AI在各行各業中日益增長的能力，從自動化生產到複雜決策，預示著在不久的將來，許多傳統的人類工作可能被高效的AI系統取代。作者不僅探討了失業潮、貧富差距加劇等社會問題，更提出了關於人類存在意義的終極疑問：當AI在智力上全面超越人類，我們的角色將如何定義？這本書旨在引發大眾對科技倫理、未來勞動市場以及人機共存模式的廣泛討論，是一部既具啟示性又帶有警示意味的作品。</t>
+  </si>
+  <si>
+    <t>自然</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>環境工程</t>
+  </si>
+  <si>
+    <t>地質</t>
+  </si>
+  <si>
+    <t>農業</t>
+  </si>
+  <si>
+    <t>這是一部針對城市麻雀數量變化及其生態學意義的專題研究。本書透過長期的實地觀察、數據統計和環境分析，探討了城市化進程、棲息地喪失、食物來源變化以及環境污染等因素對麻雀種群的影響。作者旨在揭示麻雀數量變動所反映出的城市生態健康狀況，並探討如何透過改善城市環境來保護常見鳥類。本書為城市規劃者、生態研究者及普通市民提供了關於城市生物多樣性保護的重要警示與思考。</t>
+  </si>
+  <si>
+    <t>本書深入探討了現代社會中人際關係的本質，並分析了時間感知在其中扮演的角色。這項跨學科研究透過對大量文學作品、社會案例和心理學文獻的分析，旨在剖析「相遇」與「分離」在當代生活中的複雜意涵。作者引導讀者思考：在快速變動的社會中，人們如何面對期待、不確定性和潛在的失落？書中不僅從心理層面解讀了人類對於連結的渴望與恐懼，也從社會學角度審視了現代通訊技術對人際互動模式的影響。本書為文學研究者、社會心理學家以及對人際關係議題感興趣的讀者，提供了一份深刻的洞察。</t>
+  </si>
+  <si>
+    <t>探討河流意象在文學作品中的演變，並將其與實際水域生態變遷進行對照，是這份專題報告的核心。本書結合了環境文學評論與水域生態調查，深入研究了河流生物多樣性、水質污染現狀以及流域歷史文化，揭示人類活動對河流生態系統的深遠影響。本書旨在喚起讀者對水環境保護的意識，並鼓勵以更廣闊的視角去理解河流作為自然與人文複合載體的意義。這是一本為環境保護者、文學研究者及水利工程師提供了獨特跨領域視角的書籍。</t>
+  </si>
+  <si>
+    <t>為非專業人士設計的電腦科學入門指南，本書以清晰的邏輯和生動的語言，將複雜概念拆解為易於理解的部分。內容涵蓋了計算機的基礎原理、數據結構、演算法、編程思維以及網絡通訊等核心知識。作者透過大量的圖解、生活化案例和趣味問答，幫助讀者建立對電腦科學的整體認知，破除學習障礙。本書旨在激發讀者對科技的興趣，提升數位素養，是所有希望理解現代科技運作原理的普通讀者理想的入門教材。</t>
+  </si>
+  <si>
+    <t>這是一部關於自然界基本規律與現象的綜合性科普讀本。本書全面涵蓋物理學、化學、生物學、天文學和地球科學等多個自然科學領域的核心概念。從宇宙的起源到生命的演化，從物質的構成到能量的轉換，作者以嚴謹的科學態度和通俗易懂的語言，闡明了自然界的運行法則。書中不僅解釋了基礎理論知識，更著重於科學思維方式的培養，引導讀者學會觀察、提問與探究。本書是學生學習自然科學的良好輔助教材，也是廣大科學愛好者拓展知識視野的理想選擇。</t>
+  </si>
+  <si>
+    <t>研究中國東漢時期（公元25年-220年）歷史的權威史學著作。本書詳細記載了東漢王朝的政治沿革、經濟發展、社會變革、文化風貌以及民族關係等各個面向。作為「二十四史」之一，它不僅是研究後漢史的基本文獻，更為理解中國古代政治制度、思想文化和社會生活提供了豐富的資料。本書透過對原典的梳理與解讀，分析了《後漢書》的編纂特點、史料價值及其對後世史學的影響。這是一本歷史學、文學研究者以及對中國古代史有興趣的讀者不可或缺的參考。</t>
+  </si>
+  <si>
+    <t>專為台灣都市環境設計的鳥類觀察指南。本書收錄了在台灣城市、公園、校園及郊區常見的鳥類物種，每種鳥類均附有詳細的形態特徵、棲息環境、行為習性及鳴聲描述。書中配備了精美準確的生態插畫或照片，方便讀者進行快速辨識。除了物種介紹，本書也提供了城市觀鳥技巧、鳥類生態保護常識以及簡易的野外紀錄方法。本書旨在鼓勵都市居民親近自然，認識身邊的鳥類鄰居，提升對生態環境的關注，是觀鳥愛好者和生態教育者的實用工具書。</t>
+  </si>
+  <si>
+    <t>探討喜劇演員幕後生活與職業壓力的研究報告。本書從心理學和社會學角度，透過對多位搞笑藝人的訪談、行為觀察及心理測試，深入分析了他們在舞台上的「搞笑」與私下生活中的「不搞笑」之間的心理反差。內容涵蓋了喜劇表演的壓力、公眾形象與個人身份的衝突、以及藝人如何應對職業倦怠和情緒管理。本書旨在揭示表演藝術家光鮮背後的真實面貌，為演藝圈從業者、心理學研究者及喜劇愛好者提供一份獨特的行業觀察與心理分析。</t>
+  </si>
+  <si>
+    <t>一本專為園藝初學者設計的盆栽養護入門手冊。本書以圖文並茂的方式，系統地介紹了如何從零開始，選擇合適的盆栽植物、準備栽培土壤、進行日常澆水施肥、以及應對常見病蟲害等基本知識。內容涵蓋了多種適合居家環境的盆栽植物，並針對每種植物提供了詳細的養護技巧和注意事項。本書旨在幫助新手輕鬆入門盆栽世界，享受綠色生活帶來的樂趣與療癒，是居家裝飾與園藝愛好者的實用指南。</t>
+  </si>
+  <si>
+    <t>深入探討中國古代哲學中邏輯思辨與概念辨析的學術專著。本書以公孫龍的「白馬非馬」命題為切入點，系統梳理了先秦時期名家、法家、道家等各學派在概念、判斷、推理等方面的思想發展。作者透過對儒家「正名」、道家「道可道非常道」等哲學命題的深度解讀，揭示了中國古代哲學家在語言、知識與存在關係上的獨特思考。本書旨在為哲學研究者、邏輯學愛好者及對中國傳統文化有興趣的讀者，提供一份關於中國古代邏輯思維的專業分析。</t>
+  </si>
+  <si>
+    <t>作為一部專業文獻，本書聚焦於現代城市水資源管理與清潔技術。書中深入探討了城市廢水處理、再生水利用以及河流湖泊生態修復的最新技術與實踐案例。從工業廢水到生活污水，從初期雨水徑流控制到河道清淤維護，內容旨在提供一套全面的城市水環境綜合治理方案。書中涵蓋了先進的膜分離技術、生物處理系統、智慧水務監控等前沿領域，並分析了多個成功實施「大新浣」工程的城市經驗。本書為環境工程師、城市規劃者及相關政策制定者，提供了寶貴的理論支持與實踐參考。</t>
+  </si>
+  <si>
+    <t>這是一本專門研究珍稀果實「騭菓」的農業科學專著。本書詳細介紹了騭菓的植物學分類、生物特性、生長習性及其對土壤、氣候條件的特殊要求。從種子培育、幼苗管理、病蟲害防治到果實採摘與儲存，書中系統地闡述了騭菓從育種到豐收的全過程。同時，本書還探討了騭菓的營養成分、藥用價值以及在食品加工中的應用前景。透過大量的實驗數據、田間觀察記錄和栽培圖示，本書為專業農業研究人員、園藝愛好者以及騭菓種植者提供了權威且實用的技術指導。</t>
+  </si>
+  <si>
+    <t>這份深度考察報告專注於高海拔山脈的地質構造與生態環境。本書聚焦於特定寒帶山脈的形成機制、岩石類型、冰川地貌以及極端氣候條件下的生物多樣性。透過實地勘測數據、衛星影像分析及地質樣本研究，本書詳細描繪了寒山地區的地質演變過程、獨特的礦產資源分佈，以及適應嚴酷環境的動植物群落。此外，本書也探討了氣候變化對寒山冰川融化與生態系統的影響，旨在為地質學家、生態學者及極地探險愛好者提供一份全面的研究資料。</t>
+  </si>
+  <si>
+    <t>作為一部農業經濟學著作，本書專門探討了稻米產業鏈與全球糧食安全問題。書中從歷史、經濟和政策等多維度，分析了稻米作為世界主要糧食作物，其生產、貿易、消費模式對全球經濟和社會穩定的影響。內容涵蓋了稻米育種技術的進步、耕作方式的演變、市場供需關係的變動，以及各國政府在稻米政策上的挑戰與機遇。本書旨在為農業研究人員、政策制定者和關心糧食安全的讀者，提供一個理解稻米產業複雜性和未來發展趨勢的專業視角。</t>
+  </si>
+  <si>
+    <t>本書是一部專注於舊石器時代人類早期社會活動與工具演化的考古學專著。透過對出土石器、洞穴壁畫和遺址分佈的分析，書中深入探討了遠古人類的狩獵採集生活、社群組織模式，以及早期藝術與儀式活動的起源。詳細介紹了舊石器時代不同階段的標誌性工具，並闡述了這些工具的製作工藝、功能用途及其反映的技術進步。本書旨在為考古學家、人類學家及對史前文明感興趣的讀者，提供一份關於人類早期智慧與文化的權威性研究資料。</t>
+  </si>
+  <si>
+    <t>這是一本關於建築結構中「樑」的設計原理、材料選擇與應用案例的工程技術手冊。本書從力學分析的角度，詳細闡述了不同類型樑（如簡支樑、懸臂樑、連續樑等）的受力特點、截面設計與承載能力計算方法。內容涵蓋了傳統木樑、現代鋼筋混凝土樑、鋼樑及新型複合材料樑的性能比較與施工技術。本書旨在為土木工程師、建築師及相關專業學生提供實用的設計規範與技術參考，以確保建築結構的安全性和穩定性，是理解建築核心承重構件的專業指南。</t>
+  </si>
+  <si>
+    <t>作為一部水文學專著，本書深入研究了地下水流動機制與泉水形成原理。書中詳細分析了地下水補給、徑流、排泄的過程，探討了不同地質構造對泉水形成和分佈的影響。從喀斯特地貌的地下河系統到火山區的熱泉現象，內容結合水文監測數據和地球化學分析，揭示了地下水資源的動態變化規律。本書旨在為水文學家、地質工程師及水資源管理者，提供關於地下水資源探測、開發利用和保護的專業知識，以實現水資源的可持續利用。</t>
+  </si>
+  <si>
+    <t>本書是一部聚焦於原生林生態系統及其生物多樣性保護的專題研究。以「故林」為概念，書中探討了未經人為干擾的原始森林在維持生態平衡、物種基因庫以及碳循環中的關鍵作用。內容涵蓋了森林群落的演替、生物間的相互作用、森林土壤的形成與維持，以及氣候變化對其健康的影響。書中深入分析了多個原生林保護區的案例，並提出了有效的保護策略與管理建議。本書旨在為生態學者、環保工作者及林業專業人士，提供一份關於原生林生態價值與保護實踐的參考資料。</t>
+  </si>
+  <si>
+    <t>這是一本探索在極簡環境中，如何透過空間設計與氛圍營造，達到心靈平靜與美學體驗的著作。本書結合了環境心理學、東方禪宗美學和西方極簡主義設計理念，分析了「漠」(空曠、廣袤)、「禪」(冥想、靜思)、「茅」(樸素、自然)、「雅」(簡約、精緻)這些元素如何共同作用於人類感官與精神層面。書中透過具體案例，展示了在沙漠、荒野或極簡室內空間中，如何利用自然光影、材質紋理與有限的物件，創造出令人感到舒適、寧靜且富有啟發性的空間體驗。本書旨在為設計師、藝術家及追求內在寧靜生活方式的讀者，提供新的設計思考與心靈指引。</t>
+  </si>
+  <si>
+    <t>全面介紹現代海洋漁業管理與捕撈技術的專業書籍。本書從海洋生態的可持續發展角度出發，探討了不同漁具漁法的效率、對海洋生態的影響以及漁業資源的評估與管理策略。內容涵蓋了遠洋捕撈、近海養殖、漁獲物加工與冷鏈運輸，以及國際漁業法規與政策的制定。書中詳細分析了過度捕撈、非法捕撈對海洋生態系統的破壞，並提出了可持續漁業發展的技術解決方案與管理模式。本書旨在為漁業管理者、海洋生物學家及相關從業人員，提供一份關於現代漁業可持續發展的權威指南。</t>
+  </si>
+  <si>
+    <t>休閒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁子涵</t>
+  </si>
+  <si>
+    <t>趙文生</t>
+  </si>
+  <si>
+    <t>張偉倫</t>
+  </si>
+  <si>
+    <t>陳志遠</t>
+  </si>
+  <si>
+    <t>廖心怡</t>
+  </si>
+  <si>
+    <t>葉秀芳</t>
+  </si>
+  <si>
+    <t>楊思遠</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPKEGCxOJ2o5GhtVSDRHLKZxiYceZQLfUc-gLNT6kxKK-RCsrevpjoIQZV0E8efyPVL8a4lK2ocCjVc_CA2Pbhjc--wrz52-Ublquv2PHy65CKBxpPdI2bR4VU9tnU4_iaDSxgdyVSKjmc1TZuvezhR=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Tlime Glidlern Tay</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOpU9PI69c2JMvmWemLUwwFd-H4wSeXppdjxVNu6i3FEASbsu392qDjropLEgha_p6ULYTuIuXPFWAnTxGP1EiEM9vCB-bN2KwGEWEtg92x2aQngnlJMC7zw9iOXwURZmhUI1kGzF1Nrp-VjZfJOUEr=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>The Roastiers of the Badenn ifs</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPRuGABwll5rDQ1BtQSrHvQvTNaArWFtO1XduPk1jpB6h2P2G158-MuPidypNwXRz8u5QAJNYho5I3pBJll4ruO-5ZTL58Hd090bmgLz2NOQuoLwxcW389hOcyTWM9m3ocJsIKPMfhTD6PlGyd3wlDC=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>ECHOES OF THE VOID</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPzOIaiei_Pc_jK02ayrHoPjV4cm6WOKtogRPbhccmpjp3_JIhT4pumnir5u9-CsIi4yb1BdPRns6tYY05lOBUh0lt7sZnFsqRNGaGa3ou8vEE1iO6k7KabpZlxp1byq2oOAjxJMbTArnEO4ZSsKWfc=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>The Surest of the book</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMMXmslH6bMYwHfnJbC20Q4vc_5i5nuyhT3FEIUFmyZpMqnS1vlrgvSYjOPfaqOiHjtxD4Ea9k704AUNwbVUCHq46bEgd7lz7dps49N833nZ-qF1OyCgoJsCK9FlKFvDEUqCZNkqlHZI5OqgIWdLrQw=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>Ameriers of the book</t>
+  </si>
+  <si>
+    <t>英文</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dr. Alistair Finch</t>
+  </si>
+  <si>
+    <t>Professor Genevieve Beaumont</t>
+  </si>
+  <si>
+    <t>Dr. Clara Ellington</t>
+  </si>
+  <si>
+    <t>Professor Jonathan Croft</t>
+  </si>
+  <si>
+    <t>Dr. Lena Petrova</t>
+  </si>
+  <si>
+    <t>Exploring the faint, yet critical, signals emanating from the earliest epochs of the universe, this book presents a comprehensive review of "ECHOES OF THE VOID." It details advanced observational techniques used to detect cosmological background radiation, primordial gravitational waves, and relic particles that provide clues to the universe's initial conditions and rapid expansion. The text delves into theoretical models of the Big Bang, inflation, and dark matter/energy implications as inferred from these subtle cosmic echoes. Intended for astrophysicists, cosmologists, and advanced students, this work illuminates the scientific quest to understand the universe's ultimate origins and evolution.</t>
+  </si>
+  <si>
+    <t>Synthetica Press</t>
+  </si>
+  <si>
+    <t>城市生態觀察社</t>
+  </si>
+  <si>
+    <t>科技通識教育出版社</t>
+  </si>
+  <si>
+    <t>藍色星球</t>
+  </si>
+  <si>
+    <t>999-000-368887-7</t>
+  </si>
+  <si>
+    <t>999-000-982816-8</t>
+  </si>
+  <si>
+    <t>999-000-499514-7</t>
+  </si>
+  <si>
+    <t>999-000-568782-2</t>
+  </si>
+  <si>
+    <t>999-000-612363-3</t>
+  </si>
+  <si>
+    <t>999-000-787235-0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>This comprehensive volume delves into the foundational principles and advanced applications of "Tlime Glidlern Tay," a groundbreaking generative art framework. It offers an in-depth analysis of its algorithmic structures, data input methodologies, and emergent aesthetic capabilities across diverse visual domains. The book explores its theoretical underpinnings in context-aware design, procedural texture generation, and its potential in complex interactive art installations. Intended for digital artists, computational designers, and researchers in creative AI, this work provides critical insights into the next generation of algorithmic art and design systems.</t>
+  </si>
+  <si>
+    <t>Focused on the intricate art and science of "Badenn ifs" – a unique roasting and caramelization process – this text provides a detailed guide for culinary stylists and photographers. It meticulously outlines the visual dynamics, plating techniques, and lighting principles critical to achieving the distinct texture and color profiles characteristic of Badenn ifs in food imagery. From precise temperature-controlled aesthetics to ingredient presentation and prop styling, the book offers scientific explanations for visual appeal alongside innovative adaptations for food photography. This serves as an essential reference for culinary artists, food photographers, and stylists seeking to elevate their visual storytelling in gastronomy.</t>
+  </si>
+  <si>
+    <t>Navigating the complexities of design integrity and material authenticity in book production is the central theme of this scholarly work. "The Surest of the book" provides a robust framework for assessing the craftsmanship, tactile qualities, and historical provenance of bookbinding and publication design. It examines methodologies for material selection, structural integrity, and the establishment of aesthetic standards for printed matter. The volume addresses critical issues in preservation design, ethical restoration, and the evolving standards for durability and beauty in physical books. This book is an invaluable resource for bookbinders, publication designers, conservators, and scholars of material culture.</t>
+  </si>
+  <si>
+    <t>This academic treatise explores the significant, yet often overlooked, "Ameriers" – pivotal figures or movements that profoundly shaped the landscape of early American typography, illustration, and visual communication. Through meticulous archival research and design analysis, the book uncovers how these Ameriers influenced type design, woodcut and engraving techniques, layout principles, and the overall visual identity of nascent American publications. It examines their roles in establishing graphic standards, promoting visual literacy, and contributing to the aesthetic infrastructure of the young nation. This is a foundational text for graphic designers, typographers, and historians of American visual culture.</t>
+  </si>
+  <si>
+    <t>藝術與設計類</t>
+  </si>
+  <si>
+    <t>藝術</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -814,6 +909,18 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Roboto"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -838,10 +945,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -875,9 +983,18 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1090,8 +1207,8 @@
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B53" sqref="B53"/>
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1207,7 +1324,7 @@
         <v>23</v>
       </c>
       <c r="N2" s="7" t="str">
-        <f t="shared" ref="N2:N47" si="0">IF(M2&lt;&gt;"",HYPERLINK(M2, "查看圖片"),"")</f>
+        <f t="shared" ref="N2:N46" si="0">IF(M2&lt;&gt;"",HYPERLINK(M2, "查看圖片"),"")</f>
         <v>查看圖片</v>
       </c>
       <c r="O2" s="4"/>
@@ -1485,7 +1602,7 @@
         <v>75</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>220</v>
+        <v>205</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1542,7 +1659,7 @@
         <v>242</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1599,7 +1716,7 @@
         <v>202</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>219</v>
+        <v>204</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1654,7 +1771,7 @@
         <v>219</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1709,7 +1826,7 @@
         <v>15</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1988,7 +2105,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>221</v>
+        <v>206</v>
       </c>
       <c r="N16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2155,7 +2272,7 @@
         <v>42</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>226</v>
+        <v>211</v>
       </c>
       <c r="N19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2212,7 +2329,7 @@
         <v>143</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>225</v>
+        <v>210</v>
       </c>
       <c r="N20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2235,8 +2352,8 @@
       <c r="A21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>75</v>
+      <c r="B21" s="2" t="s">
+        <v>182</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>112</v>
@@ -2286,14 +2403,16 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
     </row>
-    <row r="22" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:26" ht="16.5" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="1"/>
+      <c r="C22" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
         <v>117</v>
@@ -2301,11 +2420,11 @@
       <c r="F22" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="I22" s="1" t="s">
         <v>22</v>
@@ -2320,7 +2439,7 @@
         <v>156</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2339,26 +2458,28 @@
       <c r="Y22" s="4"/>
       <c r="Z22" s="4"/>
     </row>
-    <row r="23" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="1"/>
+      <c r="C23" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>125</v>
+      <c r="G23" s="13" t="s">
+        <v>213</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I23" s="1" t="s">
         <v>22</v>
@@ -2373,7 +2494,7 @@
         <v>209</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="N23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2392,26 +2513,28 @@
       <c r="Y23" s="4"/>
       <c r="Z23" s="4"/>
     </row>
-    <row r="24" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C24" s="1"/>
+      <c r="C24" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>214</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>22</v>
@@ -2426,7 +2549,7 @@
         <v>223</v>
       </c>
       <c r="M24" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="N24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2445,24 +2568,28 @@
       <c r="Y24" s="4"/>
       <c r="Z24" s="4"/>
     </row>
-    <row r="25" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>216</v>
+      </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>229</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I25" s="1" t="s">
         <v>22</v>
@@ -2477,7 +2604,7 @@
         <v>63</v>
       </c>
       <c r="M25" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="N25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2496,24 +2623,28 @@
       <c r="Y25" s="4"/>
       <c r="Z25" s="4"/>
     </row>
-    <row r="26" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
+        <v>133</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>230</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I26" s="1" t="s">
         <v>22</v>
@@ -2528,7 +2659,7 @@
         <v>146</v>
       </c>
       <c r="M26" s="1" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="N26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2547,26 +2678,28 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
     </row>
-    <row r="27" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C27" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="G27" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>231</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I27" s="1" t="s">
         <v>22</v>
@@ -2581,7 +2714,7 @@
         <v>164</v>
       </c>
       <c r="M27" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="N27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2600,24 +2733,28 @@
       <c r="Y27" s="4"/>
       <c r="Z27" s="4"/>
     </row>
-    <row r="28" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+        <v>141</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>218</v>
+      </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>232</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I28" s="1" t="s">
         <v>22</v>
@@ -2632,7 +2769,7 @@
         <v>191</v>
       </c>
       <c r="M28" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="N28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2651,24 +2788,28 @@
       <c r="Y28" s="4"/>
       <c r="Z28" s="4"/>
     </row>
-    <row r="29" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>155</v>
+        <v>147</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>233</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I29" s="1" t="s">
         <v>22</v>
@@ -2683,7 +2824,7 @@
         <v>85</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="N29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2702,24 +2843,28 @@
       <c r="Y29" s="4"/>
       <c r="Z29" s="4"/>
     </row>
-    <row r="30" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:26" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>83</v>
+      </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>160</v>
+        <v>151</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>234</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I30" s="1" t="s">
         <v>22</v>
@@ -2734,7 +2879,7 @@
         <v>67</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="N30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2753,24 +2898,28 @@
       <c r="Y30" s="4"/>
       <c r="Z30" s="4"/>
     </row>
-    <row r="31" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
+        <v>153</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>217</v>
+      </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>235</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I31" s="1" t="s">
         <v>22</v>
@@ -2785,7 +2934,7 @@
         <v>225</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="N31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2804,24 +2953,28 @@
       <c r="Y31" s="4"/>
       <c r="Z31" s="4"/>
     </row>
-    <row r="32" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
+        <v>157</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>170</v>
+        <v>159</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>236</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>22</v>
@@ -2836,7 +2989,7 @@
         <v>195</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="N32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2855,24 +3008,28 @@
       <c r="Y32" s="4"/>
       <c r="Z32" s="4"/>
     </row>
-    <row r="33" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
+        <v>161</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>175</v>
+        <v>163</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>237</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>22</v>
@@ -2887,7 +3044,7 @@
         <v>44</v>
       </c>
       <c r="M33" s="1" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="N33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2906,24 +3063,28 @@
       <c r="Y33" s="4"/>
       <c r="Z33" s="4"/>
     </row>
-    <row r="34" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+        <v>165</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>180</v>
+        <v>167</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>238</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>22</v>
@@ -2938,7 +3099,7 @@
         <v>3</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="N34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2957,21 +3118,29 @@
       <c r="Y34" s="4"/>
       <c r="Z34" s="4"/>
     </row>
-    <row r="35" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C35" s="1"/>
+        <v>169</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="I35" s="1" t="s">
         <v>22</v>
       </c>
@@ -2985,7 +3154,7 @@
         <v>90</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="N35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3004,21 +3173,29 @@
       <c r="Y35" s="4"/>
       <c r="Z35" s="4"/>
     </row>
-    <row r="36" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="C36" s="1"/>
+        <v>172</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
+        <v>173</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="I36" s="1" t="s">
         <v>22</v>
       </c>
@@ -3032,7 +3209,7 @@
         <v>208</v>
       </c>
       <c r="M36" s="1" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="N36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3051,21 +3228,29 @@
       <c r="Y36" s="4"/>
       <c r="Z36" s="4"/>
     </row>
-    <row r="37" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C37" s="1"/>
+        <v>175</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
+        <v>176</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="I37" s="1" t="s">
         <v>22</v>
       </c>
@@ -3079,7 +3264,7 @@
         <v>248</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="N37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3098,21 +3283,29 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
     </row>
-    <row r="38" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C38" s="1"/>
+        <v>178</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
+        <v>179</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>266</v>
+      </c>
       <c r="I38" s="1" t="s">
         <v>22</v>
       </c>
@@ -3126,7 +3319,7 @@
         <v>150</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="N38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3145,21 +3338,29 @@
       <c r="Y38" s="4"/>
       <c r="Z38" s="4"/>
     </row>
-    <row r="39" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>181</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>112</v>
+      </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
+        <v>183</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
       </c>
@@ -3173,7 +3374,7 @@
         <v>57</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
       <c r="N39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3192,21 +3393,29 @@
       <c r="Y39" s="4"/>
       <c r="Z39" s="4"/>
     </row>
-    <row r="40" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="1"/>
+        <v>185</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
+        <v>187</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
       </c>
@@ -3220,7 +3429,7 @@
         <v>99</v>
       </c>
       <c r="M40" s="1" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="N40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3239,21 +3448,29 @@
       <c r="Y40" s="4"/>
       <c r="Z40" s="4"/>
     </row>
-    <row r="41" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C41" s="1"/>
+        <v>189</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>239</v>
+      </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
+        <v>191</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
       </c>
@@ -3267,7 +3484,7 @@
         <v>235</v>
       </c>
       <c r="M41" s="1" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="N41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3286,21 +3503,29 @@
       <c r="Y41" s="4"/>
       <c r="Z41" s="4"/>
     </row>
-    <row r="42" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>193</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
+        <v>194</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="I42" s="1" t="s">
         <v>22</v>
       </c>
@@ -3314,7 +3539,7 @@
         <v>158</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>210</v>
+        <v>195</v>
       </c>
       <c r="N42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3333,21 +3558,29 @@
       <c r="Y42" s="4"/>
       <c r="Z42" s="4"/>
     </row>
-    <row r="43" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="C43" s="1"/>
+        <v>196</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>215</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="F43" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>219</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>265</v>
+      </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
       </c>
@@ -3361,7 +3594,7 @@
         <v>86</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>213</v>
+        <v>198</v>
       </c>
       <c r="N43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3380,21 +3613,29 @@
       <c r="Y43" s="4"/>
       <c r="Z43" s="4"/>
     </row>
-    <row r="44" spans="1:26" ht="16.5" hidden="1" customHeight="1">
+    <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>215</v>
-      </c>
-      <c r="C44" s="1"/>
+        <v>199</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>76</v>
+      </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
+        <v>201</v>
+      </c>
+      <c r="F44" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>267</v>
+      </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
       </c>
@@ -3408,7 +3649,7 @@
         <v>188</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>217</v>
+        <v>202</v>
       </c>
       <c r="N44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3428,36 +3669,46 @@
       <c r="Z44" s="4"/>
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A45" s="1" t="str">
-        <f ca="1">工作表2!$B$1</f>
-        <v>999-000-787235-0</v>
-      </c>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
+      <c r="A45" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
+      <c r="E45" s="14" t="s">
+        <v>248</v>
+      </c>
+      <c r="F45" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>264</v>
+      </c>
       <c r="I45" s="1" t="s">
-        <v>22</v>
+        <v>257</v>
       </c>
       <c r="J45" s="1">
-        <f t="shared" ref="J45:K45" ca="1" si="1">RANDBETWEEN(200,1200)</f>
-        <v>541</v>
+        <v>664</v>
       </c>
       <c r="K45" s="1">
-        <f t="shared" ca="1" si="1"/>
-        <v>329</v>
+        <v>1066</v>
       </c>
       <c r="L45" s="1">
-        <f t="shared" ref="L45:L47" ca="1" si="2">RANDBETWEEN(0, 250)</f>
-        <v>219</v>
-      </c>
-      <c r="M45" s="1"/>
+        <v>76</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>247</v>
+      </c>
       <c r="N45" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>查看圖片</v>
       </c>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
@@ -3473,36 +3724,46 @@
       <c r="Z45" s="4"/>
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A46" s="1" t="str">
-        <f ca="1">工作表2!$B$1</f>
-        <v>999-000-787235-0</v>
-      </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
+      <c r="A46" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B46" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1" t="s">
-        <v>22</v>
+      <c r="E46" s="14" t="s">
+        <v>250</v>
+      </c>
+      <c r="F46" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="J46" s="1">
-        <f t="shared" ref="J46:K46" ca="1" si="3">RANDBETWEEN(200,1200)</f>
-        <v>1197</v>
+        <v>479</v>
       </c>
       <c r="K46" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>1150</v>
+        <v>476</v>
       </c>
       <c r="L46" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>76</v>
-      </c>
-      <c r="M46" s="1"/>
+        <v>99</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="N46" s="7" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>查看圖片</v>
       </c>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
@@ -3518,36 +3779,46 @@
       <c r="Z46" s="4"/>
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A47" s="1" t="str">
-        <f ca="1">工作表2!$B$1</f>
-        <v>999-000-787235-0</v>
-      </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
+      <c r="A47" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>280</v>
+      </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>22</v>
+      <c r="E47" s="14" t="s">
+        <v>254</v>
+      </c>
+      <c r="F47" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="G47" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="J47" s="1">
-        <f t="shared" ref="J47:K47" ca="1" si="4">RANDBETWEEN(200,1200)</f>
-        <v>1116</v>
+        <v>560</v>
       </c>
       <c r="K47" s="1">
-        <f t="shared" ca="1" si="4"/>
-        <v>662</v>
+        <v>388</v>
       </c>
       <c r="L47" s="1">
-        <f t="shared" ca="1" si="2"/>
-        <v>67</v>
-      </c>
-      <c r="M47" s="1"/>
+        <v>250</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>253</v>
+      </c>
       <c r="N47" s="7" t="str">
-        <f t="shared" si="0"/>
-        <v/>
+        <f>IF(M47&lt;&gt;"",HYPERLINK(M47, "查看圖片"),"")</f>
+        <v>查看圖片</v>
       </c>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
@@ -3563,20 +3834,47 @@
       <c r="Z47" s="4"/>
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A48" s="4"/>
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="4"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="8"/>
+      <c r="A48" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="14" t="s">
+        <v>256</v>
+      </c>
+      <c r="F48" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="G48" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J48" s="2">
+        <v>485</v>
+      </c>
+      <c r="K48" s="2">
+        <v>281</v>
+      </c>
+      <c r="L48" s="2">
+        <v>9</v>
+      </c>
+      <c r="M48" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="N48" s="7" t="str">
+        <f>IF(M48&lt;&gt;"",HYPERLINK(M48, "查看圖片"),"")</f>
+        <v>查看圖片</v>
+      </c>
       <c r="O48" s="4"/>
       <c r="P48" s="4"/>
       <c r="Q48" s="4"/>
@@ -3591,20 +3889,47 @@
       <c r="Z48" s="4"/>
     </row>
     <row r="49" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4"/>
-      <c r="I49" s="4"/>
-      <c r="J49" s="4"/>
-      <c r="K49" s="4"/>
-      <c r="L49" s="4"/>
-      <c r="M49" s="4"/>
-      <c r="N49" s="8"/>
+      <c r="A49" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" s="2"/>
+      <c r="E49" s="14" t="s">
+        <v>252</v>
+      </c>
+      <c r="F49" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="G49" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="J49" s="2">
+        <v>1109</v>
+      </c>
+      <c r="K49" s="2">
+        <v>463</v>
+      </c>
+      <c r="L49" s="2">
+        <v>207</v>
+      </c>
+      <c r="M49" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="N49" s="7" t="str">
+        <f t="shared" ref="N49" si="1">IF(M49&lt;&gt;"",HYPERLINK(M49, "查看圖片"),"")</f>
+        <v>查看圖片</v>
+      </c>
       <c r="O49" s="4"/>
       <c r="P49" s="4"/>
       <c r="Q49" s="4"/>
@@ -3632,7 +3957,10 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
-      <c r="N50" s="8"/>
+      <c r="N50" s="7" t="str">
+        <f t="shared" ref="N50" si="2">IF(M52&lt;&gt;"",HYPERLINK(M52, "查看圖片"),"")</f>
+        <v/>
+      </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
       <c r="Q50" s="4"/>
@@ -30143,9 +30471,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -30154,33 +30484,60 @@
     <col min="3" max="26" width="6.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" customHeight="1">
+    <row r="1" spans="1:14" ht="16.5" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="str">
         <f ca="1">"999-000-" &amp; TEXT(RANDBETWEEN(0,999999),"000000") &amp; "-" &amp; RANDBETWEEN(0,9)</f>
-        <v>999-000-787235-0</v>
+        <v>999-000-811094-0</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="3" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="4" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="5" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="6" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="7" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="8" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="9" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="10" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="11" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="12" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="13" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="14" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="15" spans="1:4" ht="16.5" customHeight="1"/>
-    <row r="16" spans="1:4" ht="16.5" customHeight="1"/>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="3" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="4" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="5" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="6" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="7" spans="1:14" ht="16.5" customHeight="1">
+      <c r="A7" s="15" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="15">
+        <v>1116</v>
+      </c>
+      <c r="K7" s="15">
+        <v>662</v>
+      </c>
+      <c r="L7" s="15">
+        <v>67</v>
+      </c>
+      <c r="M7" s="15"/>
+      <c r="N7" s="16" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="9" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="10" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="11" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="12" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="13" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="14" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="15" spans="1:14" ht="16.5" customHeight="1"/>
+    <row r="16" spans="1:14" ht="16.5" customHeight="1"/>
     <row r="17" ht="16.5" customHeight="1"/>
     <row r="18" ht="16.5" customHeight="1"/>
     <row r="19" ht="16.5" customHeight="1"/>

--- a/docs/書籍資料.xlsx
+++ b/docs/書籍資料.xlsx
@@ -4,18 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950"/>
+    <workbookView xWindow="510" yWindow="615" windowWidth="27735" windowHeight="13950" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
-    <sheet name="工作表2" sheetId="2" r:id="rId2"/>
+    <sheet name="資料庫" sheetId="3" r:id="rId1"/>
+    <sheet name="EXCEL表" sheetId="1" r:id="rId2"/>
+    <sheet name="工作表2" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">資料庫!$A$2:$N$62</definedName>
+  </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1213" uniqueCount="380">
   <si>
     <t>ISBN</t>
   </si>
@@ -377,9 +381,6 @@
     <t>知返</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczNW-aj9QTAIFhrpMkbhn14egJ1TZb0LRG8TCsJrySB4QZgY2rFZ2SzERDGxpmDrP0fWBw0BknpQsikrxMv0-M_kJuw1MawLICb-cBH56Ezb8Eviev3ODVMZRizn7o8ipI3_4T0dDmaBiNSRQ1AsE40a=w378-h476-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-660896-1</t>
   </si>
   <si>
@@ -389,9 +390,6 @@
     <t>黃問游</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczM6GitAYhwBCR1iZqaL4aEx2LScTRzc8y6HyyqZVlKWmM76hMaoIoHJkW-YJxlgdx6-KB3BuOJF4nhGnp1g4GihtLZ8Uef4d_l9aCB43Kn28KttPebICmHR6G6HjoMhRloz9d0awUFYcwn_ZvuhCRjp=w428-h538-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-360803-2</t>
   </si>
   <si>
@@ -401,9 +399,6 @@
     <t>兆品力</t>
   </si>
   <si>
-    <t>https://lh3.googleusercontent.com/pw/AP1GczOL9qk-Itdu8R7oLIlHxavcrxOSBj2_-hMM7D8WWzeHY8DWt9bWdzLKaSkl_5B02OOd9EchNSMHkU348u0r4LTkAwVf12NL4VVsWeAFWxCwEmRjUmvK4a1BEW-RkE6GXfA_emo1GzzcXLbbt0OqL5E3=w425-h540-s-no-gm?authuser=0</t>
-  </si>
-  <si>
     <t>999-000-293900-3</t>
   </si>
   <si>
@@ -530,36 +525,24 @@
     <t>若是明天我們會見面</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345772224905346/f.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=5e181385c5f8cf288fda83556848bd6464f57157ebe20f157bd7532fb3bc0c72&amp;</t>
-  </si>
-  <si>
     <t>999-000-409906-0</t>
   </si>
   <si>
     <t>只有我知道那河裡有什麼</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345772552065135/g.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=16c8affd647ad74b7b47261e2166e8d5ae79b7e32b7dac8a7325a58b7ef0b4ea&amp;</t>
-  </si>
-  <si>
     <t>999-000-668871-0</t>
   </si>
   <si>
     <t>簡單易懂的電腦科學</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345770782068946/b.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=cde3fb4084baec6759b8814b54cadadd4c04980af889af1ef15d64fbf94812f9&amp;</t>
-  </si>
-  <si>
     <t>999-000-241891-4</t>
   </si>
   <si>
     <t>自然科學</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771100963017/c.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=02d47348ac879bca21ff156d2fa52c4fd76c2c2d8f451f1853bfd42f6872e9a1&amp;</t>
-  </si>
-  <si>
     <t>999-000-212048-5</t>
   </si>
   <si>
@@ -569,9 +552,6 @@
     <t>後漢書</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345770505240766/a.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=7697117c8890fdbdbfb2c2937ee6b371ae0229117e0d2f26236be1bad369640b&amp;</t>
-  </si>
-  <si>
     <t>999-000-895922-4</t>
   </si>
   <si>
@@ -581,9 +561,6 @@
     <t>台灣都市鳥類圖鑑</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771847680211/e.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=3cd83d4d05db6ae92267f9a7b263eedbb06dd0640cde0c4bc52584385e93bd30&amp;</t>
-  </si>
-  <si>
     <t>999-000-298283-5</t>
   </si>
   <si>
@@ -593,27 +570,18 @@
     <t>搞笑藝人不搞笑</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345774108151999/j.jpg?ex=682eb0ac&amp;is=682d5f2c&amp;hm=b30932536909c12834a0f7cc2bb5fcacc5f46bd8ab79b40be38595b444f9a575&amp;</t>
-  </si>
-  <si>
     <t>999-000-854952-1</t>
   </si>
   <si>
     <t>我的第一盆盆栽</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345773617414194/i.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=a5ede9a54f92d85bb81a74b8f8c5ce373e4bd85b3aa1e3e6b208778a162de092&amp;</t>
-  </si>
-  <si>
     <t>999-000-267514-0</t>
   </si>
   <si>
     <t>麻雀都去哪裡了？</t>
   </si>
   <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345773332332717/h.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=abd436ab8b45e198550492b9a6965a246450c5e46c991ef467040a0d9ff0636d&amp;</t>
-  </si>
-  <si>
     <t>999-000-910668-7</t>
   </si>
   <si>
@@ -621,9 +589,6 @@
   </si>
   <si>
     <t>白馬非馬-中國經典哲學</t>
-  </si>
-  <si>
-    <t>https://cdn.discordapp.com/attachments/1372605401174118532/1373345771386044558/d.jpg?ex=682eb0ab&amp;is=682d5f2b&amp;hm=1652c91a30e95f37d7d16dd8b8565d423271f1dc6c154c416689d11e28c01ab3&amp;</t>
   </si>
   <si>
     <t>F9刷新</t>
@@ -861,13 +826,352 @@
   </si>
   <si>
     <t>藝術</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 999-000-123456-7</t>
+  </si>
+  <si>
+    <t>宗教與哲學類</t>
+  </si>
+  <si>
+    <t>佛教解釋</t>
+  </si>
+  <si>
+    <t>許淑芬</t>
+  </si>
+  <si>
+    <t>深入淺出地闡釋佛教的核心教義與哲學思想。從緣起性空、四聖諦到八正道，帶領讀者理解佛陀的智慧，探討佛法如何引導人們解脫煩惱，追求內心的平靜與覺醒，是認識佛教思想體系的入門指南。</t>
+  </si>
+  <si>
+    <t>啟明哲思出版社</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPorBwysL9HQAdKSZhFJf09ifVBSB6X90es45JloRPt4zeMM-NNMMXrLB5iIrdOeV5DN16eRKwqAQEX34hKV3dMy5qyyfOGPXEDPSa2rpOxZufgvJl9APmIrsn9lSYBXxpZdO72y6iPi_kaFWW1deZF=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-234567-8</t>
+  </si>
+  <si>
+    <t>科學類</t>
+  </si>
+  <si>
+    <t>火箭科技</t>
+  </si>
+  <si>
+    <t>蔡宗翰</t>
+  </si>
+  <si>
+    <t>詳盡介紹火箭科學的基礎原理與最新發展。從推進系統、空氣動力學到軌道力學，揭示火箭升空、太空探索的奧秘。內容涵蓋各類型火箭的設計與應用，為讀者揭開航太科技的神秘面紗，一窺人類征服宇宙的偉大成就。</t>
+  </si>
+  <si>
+    <t>探索前沿出版社</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPspzDXwGx4Jbh9Zc58cS59aAbN3uUASh4EWeRE26YnmRT_WKBry4-LH7l4sOKSdKC9FcW-LeVfkry8sju-bL3BbkzVaS5ZgR4GzIkmOjPdibVsDEU8AJsCnMo0l_U823JAbD92GxVyoBhPq9_VfE2Z=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-345678-9</t>
+  </si>
+  <si>
+    <t>社會科學類</t>
+  </si>
+  <si>
+    <t>心理與教育</t>
+  </si>
+  <si>
+    <t>心理學介紹</t>
+  </si>
+  <si>
+    <t>吳佩玲</t>
+  </si>
+  <si>
+    <t>本書是心理學的入門指南，系統性介紹人類行為與心智活動的科學。內容涵蓋認知心理學、發展心理學、社會心理學等多個領域，探討記憶、學習、情緒、人格等主題，幫助讀者更好地理解自己與他人，提升人際互動與生活品質。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNtKUcWkF5io2lRbpY9gBCa02HZ3pNCFw63vEpvB6Z8Olr86xxGIYG-u-5DKMn2yKa8cYUHBPAuf4eVQZCyhN5xK2bd2oyI4WG0Wp_Yf6Irt-dpUb0Ia_YMkY6J00y5MUK0fZHwBZKMbYBEt8oVWwxw=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-456789-0</t>
+  </si>
+  <si>
+    <t>歷史與地理類</t>
+  </si>
+  <si>
+    <t>地理與文化探索</t>
+  </si>
+  <si>
+    <t>地理知識</t>
+  </si>
+  <si>
+    <t>楊凱文</t>
+  </si>
+  <si>
+    <t>匯集豐富的地理常識，帶領讀者探索地球的奧秘。從地貌變遷、氣候類型到人文地理，深入淺出地介紹自然與人文環境的相互作用。書中配有豐富的圖表與案例，幫助讀者拓展視野，理解世界各地風土民情的形成與發展。</t>
+  </si>
+  <si>
+    <t>寰宇文化出版社</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczO53LsGbgRJS2kd37ZPD4Ic12NGDLS4YU0MZpr_f6ffbWJLctFhPPDcidNg6O5BCIA30lhqGv9Nl7WoMIrNrDmyLo_YZAgYiC5MvHHndnyofXDs0Wd_Va6SOCKfAHHYRYEwdxZbbhm6SBGAZNSOi0eU=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-567890-1</t>
+  </si>
+  <si>
+    <t>哲學與思辨</t>
+  </si>
+  <si>
+    <t>哲學的理念</t>
+  </si>
+  <si>
+    <t>李明華</t>
+  </si>
+  <si>
+    <t>探討哲學的根本問題與核心理念。從古希臘到現代，介紹各派哲學思想家對存在、知識、道德、美學等議題的深刻思考。引導讀者批判性地審視世界，培養獨立思考的能力，在多元的觀點中尋找真理與人生的意義。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOq_pzmjUs5kV4bh_LSDreYGH-4t2odIzTgGUavfityvOsrlkNARU37zevlnI4DOvninajIvZvnt8U81PwOR_9N0SQf1-OCxnb2nS7e6bdMd0dYn9qwzC25DDl1l2RBNPLb_-TyRR_Ibdg7lyVE3lww=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 999-000-678901-2</t>
+  </si>
+  <si>
+    <t>國際觀光景點</t>
+  </si>
+  <si>
+    <t>張雅婷</t>
+  </si>
+  <si>
+    <t>精選世界各地的著名國際觀光景點，提供詳盡的介紹與旅遊攻略。從歷史古蹟、自然風光到現代都市，帶領讀者領略不同文化的魅力。書中包含交通、住宿、美食等實用資訊，是規劃國際旅行、探索異國風情的最佳參考指南。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczM5opCPlzGZeSQYVM_JZHfnqbGROFZ5qNaDpPnGO3PWS9Hq72D5mgEB3Ll2pC8-7orlaEVqjhOGggQtu5vECQ3-vgOVgUpJPM3mi14SZ7jc6Ic6G-ivOMv13kZQ2EIu_VydJVvK9bxBRUiOYBKYWwFX=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-789012-3</t>
+  </si>
+  <si>
+    <t>法國旅遊指南</t>
+  </si>
+  <si>
+    <t>王子杰</t>
+  </si>
+  <si>
+    <t>為您量身打造一趟浪漫的法國之旅。詳盡介紹巴黎的藝術氣息、南法的薰衣草田、蔚藍海岸的陽光與阿爾卑斯山的壯麗。提供實用的交通、住宿、美食資訊，並推薦獨特的文化體驗，讓您深入感受法國的歷史、藝術與生活美學。</t>
+  </si>
+  <si>
+    <t>藝文采風出版社</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczNyv4_IRP1fcziojkssWEbkWuXy4qaaZI3wuQ1iGj9Cr5A6DKj7VevFffCfVf96r1C749-RJQUWszrRAmrJHA_j0gSHydLXtYycnAZI2gdy-LaGLgpoaq8VxRrJdtSPavGK8SuO2YL-KDyDkdsg-qyC=w579-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-890123-4</t>
+  </si>
+  <si>
+    <t>道德論</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 陳思宇</t>
+  </si>
+  <si>
+    <t>深入探討道德的本質與規範。從倫理學的理論基礎到實際生活的道德困境，引導讀者思考善惡、正義與責任。內容涵蓋功利主義、義務論、德性倫理學等主要學派，幫助讀者建立健全的道德觀，提升個人的倫理判斷與行為選擇。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMjV2ovpDOdtN134XTiLGBRH3xzAvxEjgrR8NCMgbT6GBa6vL2usl1hksKZy0e5Hipi6a-YMJ6LmL1c1yWoiY4zexpgnUJR-Iy_ge0C1HQ18MipA15ur3H11fBdoQUFPAd4Fm34jBVvAL5AmgN0idgU=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-901234-5</t>
+  </si>
+  <si>
+    <t>美術與攝影</t>
+  </si>
+  <si>
+    <t>龍與藝術</t>
+  </si>
+  <si>
+    <t>SONTELL</t>
+  </si>
+  <si>
+    <t>龍在東西方藝術中的象徵意義與多元呈現。從古老的傳說、神話故事到繪畫、雕塑、建築等藝術形式，解析龍的形象如何被賦予權力、智慧、祥瑞等文化內涵。帶領讀者穿越歷史，欣賞龍在藝術領域的獨特魅力與文化影響。</t>
+  </si>
+  <si>
+    <t>英文</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczP29S-AnSD2lOv6DlHKEnFgGlZzW5UVZ2yw7jWcYVW9vbjNEmdn7gIyqy9wdCklOw9xx087XZP-Tr0Cs6SkHjLN2H_BF8rRyn_apUvqtq8h55NagVkTxr6Yd3CEq2ZjlpG-DC-StwA4V8r59X7z9zmd=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-012345-6</t>
+  </si>
+  <si>
+    <t>生活與休閒類</t>
+  </si>
+  <si>
+    <t>旅遊與手作</t>
+  </si>
+  <si>
+    <t>筆記要點</t>
+  </si>
+  <si>
+    <t>MAKLTH JOB</t>
+  </si>
+  <si>
+    <t>提供高效筆記的實用方法與技巧。從選擇合適的筆記工具、建立邏輯架構到運用符號速記，幫助讀者提升學習效率與資訊整理能力。書中介紹多種筆記系統與應用場景，無論是學生或職場人士，都能找到適合自己的筆記策略。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN2UEJUQcY5uMRJBgwoxR_voqq2Lkpx0V_G-TZfOi5ZjDlXHeozZo48iGMtU1yaBLdYspxJulZxdqdO6YU21TCp20qrP4jRlkF1aLHjl7d3zc6dA9H1sw4e_-IB4vlgoyi6LgrbihXzw31be7qzGmVl=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-112233-7</t>
+  </si>
+  <si>
+    <t>商業與管理類</t>
+  </si>
+  <si>
+    <t>行銷與創業</t>
+  </si>
+  <si>
+    <t>商業管理</t>
+  </si>
+  <si>
+    <t>DR.DANEL</t>
+  </si>
+  <si>
+    <t>全面介紹商業管理的關鍵概念與實務操作。從策略規劃、組織行為到行銷管理、財務分析，為讀者提供建立與經營企業所需的知識框架。書中結合實際案例，幫助讀者理解商業世界運作的邏輯，提升解決問題與決策的能力。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMTKULAZ4bhdTU5gtuo6ufIfWGKEkGZ4IngUgupNMVrUQmZ4N9V-0NPlKf9G7aNJojB4ETpbsRGf_3frG56fs8XCP03aZC7xQSmfq-dbgOiZp5AbeqBljPJ70K644YWbfdChkfYS_DTxN-ToiVfwsRz=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-223344-8</t>
+  </si>
+  <si>
+    <t>設計與建築</t>
+  </si>
+  <si>
+    <t>建築學</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LILIAN </t>
+  </si>
+  <si>
+    <t>入探索建築的歷史、理論與實踐。從古典建築的宏偉到現代建築的創新，介紹不同風格與結構的設計理念。內容涵蓋建築材料、空間規劃、結構工程等專業知識，引導讀者欣賞建築之美，理解建築如何塑造我們的生活環境。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczOVeFNRVlZmqPdA2sY1fagxjUAqBch6p-Hw1vfqpDtPmZRE9l2ZngSfgZPNDtBndAcMveNg6EPpItmZaYxuFlcdkO_izWGXtOqeQtCdoF3gkhBR-5ZipFFQ2DFdgVosMwFXAVZBqvoMu5pUzx0wYsTB=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-334455-9</t>
+  </si>
+  <si>
+    <t>宇宙學</t>
+  </si>
+  <si>
+    <t>DIRRN WALVEN</t>
+  </si>
+  <si>
+    <t>帶領讀者進入浩瀚的宇宙。從宇宙的起源、演化到星系、黑洞、暗物質等最新發現，介紹宇宙學的基礎理論與前沿研究。書中結合天文學的最新觀測數據，揭示宇宙的奧秘與人類在其中的位置，激發讀者對未知世界的無限想像。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczMSOgk75vEklbnFJYf_7abRGdoneWrW92oH4aEabLR24JA540eY0H3qm1ERA-ZLoFj3HD_7K8Xkf6KK8IL-oDDXd9QuP95KhzapwCISdWZcyeK6lq_WYvZsYGRQh-Oqg8XP3qW3sDhbnW20esA3m3jC=w869-h869-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>書籍</t>
+  </si>
+  <si>
+    <t>宗教信仰與靈修</t>
+  </si>
+  <si>
+    <t>其他出版物</t>
+  </si>
+  <si>
+    <t>世界與區域歷史</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1P95vEdLCKcY0d5xkppkI8.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/6ZfTAOaLmiDiW4hjhdFzyC.jpg</t>
+  </si>
+  <si>
+    <t>飲食與健康</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/YzX5YwoxG6LrpzSjVrTN8.jpg</t>
+  </si>
+  <si>
+    <t>科普讀物</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/CVsymBRSTgr4j1bpFjgAP.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPL1Lt_iuvZ9RtLZvuQiOtpYf6eTDr2oDLFOiHSpu4hpo4WLEcQiqNVU5WBgWezAn1EwaXznKGl9KAG1yNusZ4h51UBaUWqOWHuf-shcmfh6FYOpIEW2M35Frqm-Lzc1OY0haS4UfvrchE2Hq2LS2Fr=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/4TmjE92zBJ4HQ7ZUhYVBjh.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1S1mrYKvyGadaoCkRZMWtv.jpg</t>
+  </si>
+  <si>
+    <t>散文與詩詞</t>
+  </si>
+  <si>
+    <t>這是一本專門研究珍稀果實「騭?」的農業科學專著。本書詳細介紹了騭?的植物學分類、生物特性、生長習性及其對土壤、氣候條件的特殊要求。從種子培育、幼苗管理、病蟲害防治到果實採摘與儲存，書中系統地闡述了騭?從育種到豐收的全過程。同時，本書還探討了騭?的營養成分、藥用價值以及在食品加工中的應用前景。透過大量的實驗數據、田間觀察記錄和栽培圖示，本書為專業農業研究人員、園藝愛好者以及騭?種植者提供了權威且實用的技術指導。</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczN1nCBb0efX7PhLSHew8d5_wC32hipYvmUa8JOPLzB2e2oMNi6obo8ctyXxDbj81hh9SHZA-LwpVFzYbPS4Cpc_Z2W0lar0TGuiYyOFpHYdRbQ90uG3xyCS85oONUOyX9wq0l6hgNl1Y71bN4BtQaab=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/1zJiIW2DtNQHKeIMXkoyqj.jpg</t>
+  </si>
+  <si>
+    <t>漫畫</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/5KzsKl25jNoSJbnEoi77rl.jpg</t>
+  </si>
+  <si>
+    <t>繪本</t>
+  </si>
+  <si>
+    <t>雜誌</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/47DXvzNeIckj3Gmnz3355P.jpg</t>
+  </si>
+  <si>
+    <t>https://images.plurk.com/78sGuZsCpxYmbj0tNkQZVE.jpg</t>
+  </si>
+  <si>
+    <t>https://lh3.googleusercontent.com/pw/AP1GczPUymPfxPh2YFqzUYpfXHR7o0O1fzvZqlnFaghV_iigdqWrYaOne1IYdY25YVgEmUGYa-2_X4dvulD4OLQqqssAx2ihzFWRjuTXD8A8aFda3sHSwmYJwgg6i6XJAhqiuCXrVw0LJVcuoYrgkMDYsvmg=w460-h580-s-no-gm?authuser=0</t>
+  </si>
+  <si>
+    <t>999-000-123456-7</t>
+  </si>
+  <si>
+    <t>999-000-678901-2</t>
+  </si>
+  <si>
+    <t>出版類型</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>美術與攝影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>詳盡介紹火箭科學的基礎原理與最新發展。從推進系統、空氣動力學到軌道力學，揭示火箭升空、太空探索的奧秘。內容涵蓋各類型火箭的設計與應用，為讀者揭開航太科技的神秘面紗，一窺人類征服宇宙的偉大成就。</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -921,6 +1225,14 @@
       <color rgb="FF1F1F1F"/>
       <name val="Roboto"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -949,7 +1261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -991,6 +1303,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -1204,11 +1517,2619 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="16.5" customHeight="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>377</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+      <c r="X1" s="4"/>
+      <c r="Y1" s="4"/>
+      <c r="Z1" s="4"/>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D2" t="s">
+        <v>352</v>
+      </c>
+      <c r="F2" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I2" t="s">
+        <v>273</v>
+      </c>
+      <c r="J2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2">
+        <v>320</v>
+      </c>
+      <c r="L2">
+        <v>480</v>
+      </c>
+      <c r="M2">
+        <v>120</v>
+      </c>
+      <c r="N2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>376</v>
+      </c>
+      <c r="B3" t="s">
+        <v>351</v>
+      </c>
+      <c r="C3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="F3" t="s">
+        <v>304</v>
+      </c>
+      <c r="G3" t="s">
+        <v>305</v>
+      </c>
+      <c r="H3" t="s">
+        <v>306</v>
+      </c>
+      <c r="I3" t="s">
+        <v>295</v>
+      </c>
+      <c r="J3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3">
+        <v>520</v>
+      </c>
+      <c r="L3">
+        <v>880</v>
+      </c>
+      <c r="M3">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B4" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" t="s">
+        <v>329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>330</v>
+      </c>
+      <c r="H4" t="s">
+        <v>331</v>
+      </c>
+      <c r="I4" t="s">
+        <v>312</v>
+      </c>
+      <c r="J4" t="s">
+        <v>324</v>
+      </c>
+      <c r="K4">
+        <v>180</v>
+      </c>
+      <c r="L4">
+        <v>280</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K5">
+        <v>1024</v>
+      </c>
+      <c r="L5">
+        <v>499</v>
+      </c>
+      <c r="M5">
+        <v>229</v>
+      </c>
+      <c r="N5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6">
+        <v>849</v>
+      </c>
+      <c r="L6">
+        <v>748</v>
+      </c>
+      <c r="M6">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C7" t="s">
+        <v>334</v>
+      </c>
+      <c r="D7" t="s">
+        <v>335</v>
+      </c>
+      <c r="F7" t="s">
+        <v>336</v>
+      </c>
+      <c r="G7" t="s">
+        <v>337</v>
+      </c>
+      <c r="H7" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" t="s">
+        <v>280</v>
+      </c>
+      <c r="J7" t="s">
+        <v>324</v>
+      </c>
+      <c r="K7">
+        <v>410</v>
+      </c>
+      <c r="L7">
+        <v>680</v>
+      </c>
+      <c r="M7">
+        <v>95</v>
+      </c>
+      <c r="N7" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" t="s">
+        <v>351</v>
+      </c>
+      <c r="C8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+      <c r="E8" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" t="s">
+        <v>109</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>110</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>22</v>
+      </c>
+      <c r="K8">
+        <v>214</v>
+      </c>
+      <c r="L8">
+        <v>641</v>
+      </c>
+      <c r="M8">
+        <v>143</v>
+      </c>
+      <c r="N8" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>174</v>
+      </c>
+      <c r="B9" t="s">
+        <v>353</v>
+      </c>
+      <c r="C9" t="s">
+        <v>175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>354</v>
+      </c>
+      <c r="F9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G9" t="s">
+        <v>230</v>
+      </c>
+      <c r="H9" t="s">
+        <v>211</v>
+      </c>
+      <c r="I9" t="s">
+        <v>254</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>291</v>
+      </c>
+      <c r="L9">
+        <v>216</v>
+      </c>
+      <c r="M9">
+        <v>57</v>
+      </c>
+      <c r="N9" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s">
+        <v>351</v>
+      </c>
+      <c r="C10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D10" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H10" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10">
+        <v>1038</v>
+      </c>
+      <c r="L10">
+        <v>880</v>
+      </c>
+      <c r="M10">
+        <v>195</v>
+      </c>
+      <c r="N10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C11" t="s">
+        <v>266</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+      <c r="F11" t="s">
+        <v>342</v>
+      </c>
+      <c r="G11" t="s">
+        <v>343</v>
+      </c>
+      <c r="H11" t="s">
+        <v>344</v>
+      </c>
+      <c r="I11" t="s">
+        <v>280</v>
+      </c>
+      <c r="J11" t="s">
+        <v>324</v>
+      </c>
+      <c r="K11">
+        <v>370</v>
+      </c>
+      <c r="L11">
+        <v>720</v>
+      </c>
+      <c r="M11">
+        <v>70</v>
+      </c>
+      <c r="N11" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" t="s">
+        <v>173</v>
+      </c>
+      <c r="F12" t="s">
+        <v>277</v>
+      </c>
+      <c r="G12" t="s">
+        <v>278</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>379</v>
+      </c>
+      <c r="I12" t="s">
+        <v>280</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
+      </c>
+      <c r="K12">
+        <v>450</v>
+      </c>
+      <c r="L12">
+        <v>750</v>
+      </c>
+      <c r="M12">
+        <v>85</v>
+      </c>
+      <c r="N12" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" t="s">
+        <v>351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" t="s">
+        <v>173</v>
+      </c>
+      <c r="F13" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" t="s">
+        <v>229</v>
+      </c>
+      <c r="H13" t="s">
+        <v>210</v>
+      </c>
+      <c r="I13" t="s">
+        <v>253</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K13">
+        <v>577</v>
+      </c>
+      <c r="L13">
+        <v>347</v>
+      </c>
+      <c r="M13">
+        <v>150</v>
+      </c>
+      <c r="N13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" t="s">
+        <v>276</v>
+      </c>
+      <c r="D14" t="s">
+        <v>173</v>
+      </c>
+      <c r="F14" t="s">
+        <v>163</v>
+      </c>
+      <c r="G14" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
+      </c>
+      <c r="K14">
+        <v>910</v>
+      </c>
+      <c r="L14">
+        <v>230</v>
+      </c>
+      <c r="M14">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" t="s">
+        <v>357</v>
+      </c>
+      <c r="F15" t="s">
+        <v>186</v>
+      </c>
+      <c r="G15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" t="s">
+        <v>206</v>
+      </c>
+      <c r="I15" t="s">
+        <v>252</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
+      </c>
+      <c r="K15">
+        <v>755</v>
+      </c>
+      <c r="L15">
+        <v>857</v>
+      </c>
+      <c r="M15">
+        <v>86</v>
+      </c>
+      <c r="N15" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" t="s">
+        <v>351</v>
+      </c>
+      <c r="C16" t="s">
+        <v>276</v>
+      </c>
+      <c r="D16" t="s">
+        <v>359</v>
+      </c>
+      <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" t="s">
+        <v>216</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>22</v>
+      </c>
+      <c r="K16">
+        <v>219</v>
+      </c>
+      <c r="L16">
+        <v>250</v>
+      </c>
+      <c r="M16">
+        <v>63</v>
+      </c>
+      <c r="N16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17" t="s">
+        <v>351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>283</v>
+      </c>
+      <c r="D17" t="s">
+        <v>284</v>
+      </c>
+      <c r="F17" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" t="s">
+        <v>213</v>
+      </c>
+      <c r="I17" t="s">
+        <v>254</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+      <c r="K17">
+        <v>309</v>
+      </c>
+      <c r="L17">
+        <v>583</v>
+      </c>
+      <c r="M17">
+        <v>235</v>
+      </c>
+      <c r="N17" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
+      <c r="A18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" t="s">
+        <v>353</v>
+      </c>
+      <c r="C18" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" t="s">
+        <v>221</v>
+      </c>
+      <c r="I18" t="s">
+        <v>119</v>
+      </c>
+      <c r="J18" t="s">
+        <v>22</v>
+      </c>
+      <c r="K18">
+        <v>744</v>
+      </c>
+      <c r="L18">
+        <v>390</v>
+      </c>
+      <c r="M18">
+        <v>67</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="A19" t="s">
+        <v>346</v>
+      </c>
+      <c r="B19" t="s">
+        <v>351</v>
+      </c>
+      <c r="C19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D19" t="s">
+        <v>173</v>
+      </c>
+      <c r="F19" t="s">
+        <v>347</v>
+      </c>
+      <c r="G19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" t="s">
+        <v>349</v>
+      </c>
+      <c r="I19" t="s">
+        <v>295</v>
+      </c>
+      <c r="J19" t="s">
+        <v>324</v>
+      </c>
+      <c r="K19">
+        <v>490</v>
+      </c>
+      <c r="L19">
+        <v>850</v>
+      </c>
+      <c r="M19">
+        <v>50</v>
+      </c>
+      <c r="N19" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
+      <c r="A20" t="s">
+        <v>282</v>
+      </c>
+      <c r="B20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C20" t="s">
+        <v>283</v>
+      </c>
+      <c r="D20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" t="s">
+        <v>273</v>
+      </c>
+      <c r="J20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <v>288</v>
+      </c>
+      <c r="L20">
+        <v>420</v>
+      </c>
+      <c r="M20">
+        <v>155</v>
+      </c>
+      <c r="N20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" t="s">
+        <v>351</v>
+      </c>
+      <c r="C21" t="s">
+        <v>276</v>
+      </c>
+      <c r="D21" t="s">
+        <v>359</v>
+      </c>
+      <c r="F21" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" t="s">
+        <v>125</v>
+      </c>
+      <c r="H21" t="s">
+        <v>201</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>22</v>
+      </c>
+      <c r="K21">
+        <v>1188</v>
+      </c>
+      <c r="L21">
+        <v>320</v>
+      </c>
+      <c r="M21">
+        <v>223</v>
+      </c>
+      <c r="N21" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" t="s">
+        <v>52</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>53</v>
+      </c>
+      <c r="I22" t="s">
+        <v>41</v>
+      </c>
+      <c r="J22" t="s">
+        <v>22</v>
+      </c>
+      <c r="K22">
+        <v>1159</v>
+      </c>
+      <c r="L22">
+        <v>711</v>
+      </c>
+      <c r="M22">
+        <v>202</v>
+      </c>
+      <c r="N22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
+      <c r="A23" t="s">
+        <v>255</v>
+      </c>
+      <c r="B23" t="s">
+        <v>351</v>
+      </c>
+      <c r="C23" t="s">
+        <v>266</v>
+      </c>
+      <c r="D23" t="s">
+        <v>320</v>
+      </c>
+      <c r="F23" t="s">
+        <v>235</v>
+      </c>
+      <c r="G23" t="s">
+        <v>245</v>
+      </c>
+      <c r="H23" t="s">
+        <v>262</v>
+      </c>
+      <c r="I23" t="s">
+        <v>251</v>
+      </c>
+      <c r="J23" t="s">
+        <v>324</v>
+      </c>
+      <c r="K23">
+        <v>664</v>
+      </c>
+      <c r="L23">
+        <v>1066</v>
+      </c>
+      <c r="M23">
+        <v>76</v>
+      </c>
+      <c r="N23" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" t="s">
+        <v>228</v>
+      </c>
+      <c r="H24" t="s">
+        <v>208</v>
+      </c>
+      <c r="I24" t="s">
+        <v>252</v>
+      </c>
+      <c r="J24" t="s">
+        <v>22</v>
+      </c>
+      <c r="K24">
+        <v>537</v>
+      </c>
+      <c r="L24">
+        <v>771</v>
+      </c>
+      <c r="M24">
+        <v>208</v>
+      </c>
+      <c r="N24" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" t="s">
+        <v>22</v>
+      </c>
+      <c r="K25">
+        <v>963</v>
+      </c>
+      <c r="L25">
+        <v>711</v>
+      </c>
+      <c r="M25">
+        <v>242</v>
+      </c>
+      <c r="N25" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>111</v>
+      </c>
+      <c r="B26" t="s">
+        <v>351</v>
+      </c>
+      <c r="C26" t="s">
+        <v>175</v>
+      </c>
+      <c r="D26" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" t="s">
+        <v>113</v>
+      </c>
+      <c r="G26" t="s">
+        <v>78</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" t="s">
+        <v>22</v>
+      </c>
+      <c r="K26">
+        <v>497</v>
+      </c>
+      <c r="L26">
+        <v>697</v>
+      </c>
+      <c r="M26">
+        <v>125</v>
+      </c>
+      <c r="N26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" t="s">
+        <v>289</v>
+      </c>
+      <c r="B27" t="s">
+        <v>351</v>
+      </c>
+      <c r="C27" t="s">
+        <v>290</v>
+      </c>
+      <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="F27" t="s">
+        <v>292</v>
+      </c>
+      <c r="G27" t="s">
+        <v>293</v>
+      </c>
+      <c r="H27" t="s">
+        <v>294</v>
+      </c>
+      <c r="I27" t="s">
+        <v>295</v>
+      </c>
+      <c r="J27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K27">
+        <v>350</v>
+      </c>
+      <c r="L27">
+        <v>620</v>
+      </c>
+      <c r="M27">
+        <v>90</v>
+      </c>
+      <c r="N27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>142</v>
+      </c>
+      <c r="B28" t="s">
+        <v>351</v>
+      </c>
+      <c r="C28" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" t="s">
+        <v>291</v>
+      </c>
+      <c r="F28" t="s">
+        <v>143</v>
+      </c>
+      <c r="G28" t="s">
+        <v>144</v>
+      </c>
+      <c r="H28" t="s">
+        <v>220</v>
+      </c>
+      <c r="I28" t="s">
+        <v>119</v>
+      </c>
+      <c r="J28" t="s">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>502</v>
+      </c>
+      <c r="L28">
+        <v>450</v>
+      </c>
+      <c r="M28">
+        <v>85</v>
+      </c>
+      <c r="N28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>351</v>
+      </c>
+      <c r="C29" t="s">
+        <v>276</v>
+      </c>
+      <c r="D29" t="s">
+        <v>359</v>
+      </c>
+      <c r="F29" t="s">
+        <v>97</v>
+      </c>
+      <c r="G29" t="s">
+        <v>98</v>
+      </c>
+      <c r="H29" t="s">
+        <v>99</v>
+      </c>
+      <c r="I29" t="s">
+        <v>68</v>
+      </c>
+      <c r="J29" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29">
+        <v>261</v>
+      </c>
+      <c r="L29">
+        <v>352</v>
+      </c>
+      <c r="M29">
+        <v>143</v>
+      </c>
+      <c r="N29" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
+      <c r="A30" t="s">
+        <v>257</v>
+      </c>
+      <c r="B30" t="s">
+        <v>351</v>
+      </c>
+      <c r="C30" t="s">
+        <v>266</v>
+      </c>
+      <c r="D30" t="s">
+        <v>320</v>
+      </c>
+      <c r="F30" t="s">
+        <v>241</v>
+      </c>
+      <c r="G30" t="s">
+        <v>247</v>
+      </c>
+      <c r="H30" t="s">
+        <v>264</v>
+      </c>
+      <c r="I30" t="s">
+        <v>251</v>
+      </c>
+      <c r="J30" t="s">
+        <v>324</v>
+      </c>
+      <c r="K30">
+        <v>560</v>
+      </c>
+      <c r="L30">
+        <v>388</v>
+      </c>
+      <c r="M30">
+        <v>250</v>
+      </c>
+      <c r="N30" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" t="s">
+        <v>33</v>
+      </c>
+      <c r="G31" t="s">
+        <v>19</v>
+      </c>
+      <c r="H31" t="s">
+        <v>34</v>
+      </c>
+      <c r="I31" t="s">
+        <v>21</v>
+      </c>
+      <c r="J31" t="s">
+        <v>22</v>
+      </c>
+      <c r="K31">
+        <v>1254</v>
+      </c>
+      <c r="L31">
+        <v>499</v>
+      </c>
+      <c r="M31">
+        <v>59</v>
+      </c>
+      <c r="N31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" t="s">
+        <v>167</v>
+      </c>
+      <c r="G32" t="s">
+        <v>227</v>
+      </c>
+      <c r="H32" t="s">
+        <v>207</v>
+      </c>
+      <c r="I32" t="s">
+        <v>254</v>
+      </c>
+      <c r="J32" t="s">
+        <v>22</v>
+      </c>
+      <c r="K32">
+        <v>370</v>
+      </c>
+      <c r="L32">
+        <v>818</v>
+      </c>
+      <c r="M32">
+        <v>90</v>
+      </c>
+      <c r="N32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" t="s">
+        <v>297</v>
+      </c>
+      <c r="B33" t="s">
+        <v>351</v>
+      </c>
+      <c r="C33" t="s">
+        <v>269</v>
+      </c>
+      <c r="D33" t="s">
+        <v>298</v>
+      </c>
+      <c r="F33" t="s">
+        <v>299</v>
+      </c>
+      <c r="G33" t="s">
+        <v>300</v>
+      </c>
+      <c r="H33" t="s">
+        <v>301</v>
+      </c>
+      <c r="I33" t="s">
+        <v>273</v>
+      </c>
+      <c r="J33" t="s">
+        <v>22</v>
+      </c>
+      <c r="K33">
+        <v>380</v>
+      </c>
+      <c r="L33">
+        <v>620</v>
+      </c>
+      <c r="M33">
+        <v>90</v>
+      </c>
+      <c r="N33" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" t="s">
+        <v>258</v>
+      </c>
+      <c r="B34" t="s">
+        <v>351</v>
+      </c>
+      <c r="C34" t="s">
+        <v>266</v>
+      </c>
+      <c r="D34" t="s">
+        <v>320</v>
+      </c>
+      <c r="F34" t="s">
+        <v>243</v>
+      </c>
+      <c r="G34" t="s">
+        <v>248</v>
+      </c>
+      <c r="H34" t="s">
+        <v>265</v>
+      </c>
+      <c r="I34" t="s">
+        <v>251</v>
+      </c>
+      <c r="J34" t="s">
+        <v>324</v>
+      </c>
+      <c r="K34">
+        <v>485</v>
+      </c>
+      <c r="L34">
+        <v>281</v>
+      </c>
+      <c r="M34">
+        <v>9</v>
+      </c>
+      <c r="N34" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" t="s">
+        <v>101</v>
+      </c>
+      <c r="B35" t="s">
+        <v>351</v>
+      </c>
+      <c r="C35" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" t="s">
+        <v>359</v>
+      </c>
+      <c r="F35" t="s">
+        <v>102</v>
+      </c>
+      <c r="G35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H35" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s">
+        <v>22</v>
+      </c>
+      <c r="K35">
+        <v>363</v>
+      </c>
+      <c r="L35">
+        <v>949</v>
+      </c>
+      <c r="M35">
+        <v>20</v>
+      </c>
+      <c r="N35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" t="s">
+        <v>105</v>
+      </c>
+      <c r="B36" t="s">
+        <v>351</v>
+      </c>
+      <c r="C36" t="s">
+        <v>269</v>
+      </c>
+      <c r="D36" t="s">
+        <v>352</v>
+      </c>
+      <c r="E36" t="s">
+        <v>91</v>
+      </c>
+      <c r="F36" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" t="s">
+        <v>22</v>
+      </c>
+      <c r="K36">
+        <v>405</v>
+      </c>
+      <c r="L36">
+        <v>450</v>
+      </c>
+      <c r="M36">
+        <v>42</v>
+      </c>
+      <c r="N36" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" t="s">
+        <v>259</v>
+      </c>
+      <c r="B37" t="s">
+        <v>351</v>
+      </c>
+      <c r="C37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D37" t="s">
+        <v>173</v>
+      </c>
+      <c r="F37" t="s">
+        <v>239</v>
+      </c>
+      <c r="G37" t="s">
+        <v>249</v>
+      </c>
+      <c r="H37" t="s">
+        <v>250</v>
+      </c>
+      <c r="I37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J37" t="s">
+        <v>324</v>
+      </c>
+      <c r="K37">
+        <v>1109</v>
+      </c>
+      <c r="L37">
+        <v>463</v>
+      </c>
+      <c r="M37">
+        <v>207</v>
+      </c>
+      <c r="N37" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" t="s">
+        <v>351</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>364</v>
+      </c>
+      <c r="F38" t="s">
+        <v>55</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>41</v>
+      </c>
+      <c r="J38" t="s">
+        <v>22</v>
+      </c>
+      <c r="K38">
+        <v>879</v>
+      </c>
+      <c r="L38">
+        <v>948</v>
+      </c>
+      <c r="M38">
+        <v>219</v>
+      </c>
+      <c r="N38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>17</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+      <c r="H39" t="s">
+        <v>26</v>
+      </c>
+      <c r="I39" t="s">
+        <v>21</v>
+      </c>
+      <c r="J39" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39">
+        <v>1314</v>
+      </c>
+      <c r="L39">
+        <v>499</v>
+      </c>
+      <c r="M39">
+        <v>233</v>
+      </c>
+      <c r="N39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B40" t="s">
+        <v>353</v>
+      </c>
+      <c r="C40" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F40" t="s">
+        <v>131</v>
+      </c>
+      <c r="G40" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" t="s">
+        <v>365</v>
+      </c>
+      <c r="I40" t="s">
+        <v>119</v>
+      </c>
+      <c r="J40" t="s">
+        <v>22</v>
+      </c>
+      <c r="K40">
+        <v>1188</v>
+      </c>
+      <c r="L40">
+        <v>390</v>
+      </c>
+      <c r="M40">
+        <v>146</v>
+      </c>
+      <c r="N40" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="B41" t="s">
+        <v>351</v>
+      </c>
+      <c r="C41" t="s">
+        <v>269</v>
+      </c>
+      <c r="D41" t="s">
+        <v>298</v>
+      </c>
+      <c r="F41" t="s">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" t="s">
+        <v>22</v>
+      </c>
+      <c r="K41">
+        <v>213</v>
+      </c>
+      <c r="L41">
+        <v>834</v>
+      </c>
+      <c r="M41">
+        <v>239</v>
+      </c>
+      <c r="N41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
+      <c r="A42" t="s">
+        <v>120</v>
+      </c>
+      <c r="B42" t="s">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G42" t="s">
+        <v>122</v>
+      </c>
+      <c r="H42" t="s">
+        <v>200</v>
+      </c>
+      <c r="I42" t="s">
+        <v>119</v>
+      </c>
+      <c r="J42" t="s">
+        <v>22</v>
+      </c>
+      <c r="K42">
+        <v>1016</v>
+      </c>
+      <c r="L42">
+        <v>540</v>
+      </c>
+      <c r="M42">
+        <v>209</v>
+      </c>
+      <c r="N42" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14">
+      <c r="A43" t="s">
+        <v>170</v>
+      </c>
+      <c r="B43" t="s">
+        <v>351</v>
+      </c>
+      <c r="C43" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" t="s">
+        <v>359</v>
+      </c>
+      <c r="F43" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" t="s">
+        <v>229</v>
+      </c>
+      <c r="H43" t="s">
+        <v>209</v>
+      </c>
+      <c r="I43" t="s">
+        <v>253</v>
+      </c>
+      <c r="J43" t="s">
+        <v>22</v>
+      </c>
+      <c r="K43">
+        <v>1186</v>
+      </c>
+      <c r="L43">
+        <v>999</v>
+      </c>
+      <c r="M43">
+        <v>248</v>
+      </c>
+      <c r="N43" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14">
+      <c r="A44" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" t="s">
+        <v>351</v>
+      </c>
+      <c r="C44" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" t="s">
+        <v>291</v>
+      </c>
+      <c r="F44" t="s">
+        <v>135</v>
+      </c>
+      <c r="G44" t="s">
+        <v>136</v>
+      </c>
+      <c r="H44" t="s">
+        <v>218</v>
+      </c>
+      <c r="I44" t="s">
+        <v>119</v>
+      </c>
+      <c r="J44" t="s">
+        <v>22</v>
+      </c>
+      <c r="K44">
+        <v>296</v>
+      </c>
+      <c r="L44">
+        <v>180</v>
+      </c>
+      <c r="M44">
+        <v>164</v>
+      </c>
+      <c r="N44" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" t="s">
+        <v>269</v>
+      </c>
+      <c r="D45" t="s">
+        <v>352</v>
+      </c>
+      <c r="E45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F45" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" t="s">
+        <v>78</v>
+      </c>
+      <c r="H45" t="s">
+        <v>93</v>
+      </c>
+      <c r="I45" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" t="s">
+        <v>22</v>
+      </c>
+      <c r="K45">
+        <v>339</v>
+      </c>
+      <c r="L45">
+        <v>374</v>
+      </c>
+      <c r="M45">
+        <v>75</v>
+      </c>
+      <c r="N45" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>351</v>
+      </c>
+      <c r="C46" t="s">
+        <v>276</v>
+      </c>
+      <c r="D46" t="s">
+        <v>359</v>
+      </c>
+      <c r="F46" t="s">
+        <v>139</v>
+      </c>
+      <c r="G46" t="s">
+        <v>140</v>
+      </c>
+      <c r="H46" t="s">
+        <v>219</v>
+      </c>
+      <c r="I46" t="s">
+        <v>119</v>
+      </c>
+      <c r="J46" t="s">
+        <v>22</v>
+      </c>
+      <c r="K46">
+        <v>667</v>
+      </c>
+      <c r="L46">
+        <v>425</v>
+      </c>
+      <c r="M46">
+        <v>191</v>
+      </c>
+      <c r="N46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14">
+      <c r="A47" t="s">
+        <v>28</v>
+      </c>
+      <c r="B47" t="s">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s">
+        <v>17</v>
+      </c>
+      <c r="F47" t="s">
+        <v>29</v>
+      </c>
+      <c r="G47" t="s">
+        <v>19</v>
+      </c>
+      <c r="H47" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>21</v>
+      </c>
+      <c r="J47" t="s">
+        <v>22</v>
+      </c>
+      <c r="K47">
+        <v>1144</v>
+      </c>
+      <c r="L47">
+        <v>499</v>
+      </c>
+      <c r="M47">
+        <v>245</v>
+      </c>
+      <c r="N47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14">
+      <c r="A48" t="s">
+        <v>308</v>
+      </c>
+      <c r="B48" t="s">
+        <v>351</v>
+      </c>
+      <c r="C48" t="s">
+        <v>290</v>
+      </c>
+      <c r="D48" t="s">
+        <v>291</v>
+      </c>
+      <c r="F48" t="s">
+        <v>309</v>
+      </c>
+      <c r="G48" t="s">
+        <v>310</v>
+      </c>
+      <c r="H48" t="s">
+        <v>311</v>
+      </c>
+      <c r="I48" t="s">
+        <v>312</v>
+      </c>
+      <c r="J48" t="s">
+        <v>22</v>
+      </c>
+      <c r="K48">
+        <v>256</v>
+      </c>
+      <c r="L48">
+        <v>399</v>
+      </c>
+      <c r="M48">
+        <v>180</v>
+      </c>
+      <c r="N48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>351</v>
+      </c>
+      <c r="C49" t="s">
+        <v>266</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="F49" t="s">
+        <v>65</v>
+      </c>
+      <c r="G49" t="s">
+        <v>66</v>
+      </c>
+      <c r="H49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49" t="s">
+        <v>68</v>
+      </c>
+      <c r="J49" t="s">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>204</v>
+      </c>
+      <c r="L49">
+        <v>560</v>
+      </c>
+      <c r="M49">
+        <v>174</v>
+      </c>
+      <c r="N49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>351</v>
+      </c>
+      <c r="C50" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" t="s">
+        <v>364</v>
+      </c>
+      <c r="F50" t="s">
+        <v>59</v>
+      </c>
+      <c r="G50" t="s">
+        <v>60</v>
+      </c>
+      <c r="H50" t="s">
+        <v>61</v>
+      </c>
+      <c r="I50" t="s">
+        <v>41</v>
+      </c>
+      <c r="J50" t="s">
+        <v>22</v>
+      </c>
+      <c r="K50">
+        <v>991</v>
+      </c>
+      <c r="L50">
+        <v>742</v>
+      </c>
+      <c r="M50">
+        <v>15</v>
+      </c>
+      <c r="N50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14">
+      <c r="A51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" t="s">
+        <v>368</v>
+      </c>
+      <c r="C51" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" t="s">
+        <v>364</v>
+      </c>
+      <c r="F51" t="s">
+        <v>38</v>
+      </c>
+      <c r="G51" t="s">
+        <v>39</v>
+      </c>
+      <c r="H51" t="s">
+        <v>40</v>
+      </c>
+      <c r="I51" t="s">
+        <v>41</v>
+      </c>
+      <c r="J51" t="s">
+        <v>22</v>
+      </c>
+      <c r="K51">
+        <v>784</v>
+      </c>
+      <c r="L51">
+        <v>551</v>
+      </c>
+      <c r="M51">
+        <v>206</v>
+      </c>
+      <c r="N51" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14">
+      <c r="A52" t="s">
+        <v>183</v>
+      </c>
+      <c r="B52" t="s">
+        <v>351</v>
+      </c>
+      <c r="C52" t="s">
+        <v>181</v>
+      </c>
+      <c r="D52" t="s">
+        <v>328</v>
+      </c>
+      <c r="F52" t="s">
+        <v>184</v>
+      </c>
+      <c r="G52" t="s">
+        <v>232</v>
+      </c>
+      <c r="H52" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" t="s">
+        <v>252</v>
+      </c>
+      <c r="J52" t="s">
+        <v>22</v>
+      </c>
+      <c r="K52">
+        <v>964</v>
+      </c>
+      <c r="L52">
+        <v>1019</v>
+      </c>
+      <c r="M52">
+        <v>158</v>
+      </c>
+      <c r="N52" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14">
+      <c r="A53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" t="s">
+        <v>351</v>
+      </c>
+      <c r="C53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D53" t="s">
+        <v>291</v>
+      </c>
+      <c r="F53" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" t="s">
+        <v>152</v>
+      </c>
+      <c r="H53" t="s">
+        <v>222</v>
+      </c>
+      <c r="I53" t="s">
+        <v>119</v>
+      </c>
+      <c r="J53" t="s">
+        <v>22</v>
+      </c>
+      <c r="K53">
+        <v>956</v>
+      </c>
+      <c r="L53">
+        <v>550</v>
+      </c>
+      <c r="M53">
+        <v>225</v>
+      </c>
+      <c r="N53" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14">
+      <c r="A54" t="s">
+        <v>70</v>
+      </c>
+      <c r="B54" t="s">
+        <v>370</v>
+      </c>
+      <c r="C54" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" t="s">
+        <v>364</v>
+      </c>
+      <c r="F54" t="s">
+        <v>71</v>
+      </c>
+      <c r="G54" t="s">
+        <v>66</v>
+      </c>
+      <c r="H54" t="s">
+        <v>72</v>
+      </c>
+      <c r="I54" t="s">
+        <v>68</v>
+      </c>
+      <c r="J54" t="s">
+        <v>22</v>
+      </c>
+      <c r="K54">
+        <v>294</v>
+      </c>
+      <c r="L54">
+        <v>406</v>
+      </c>
+      <c r="M54">
+        <v>29</v>
+      </c>
+      <c r="N54" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14">
+      <c r="A55" t="s">
+        <v>314</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55" t="s">
+        <v>269</v>
+      </c>
+      <c r="D55" t="s">
+        <v>298</v>
+      </c>
+      <c r="F55" t="s">
+        <v>315</v>
+      </c>
+      <c r="G55" t="s">
+        <v>316</v>
+      </c>
+      <c r="H55" t="s">
+        <v>317</v>
+      </c>
+      <c r="I55" t="s">
+        <v>273</v>
+      </c>
+      <c r="J55" t="s">
+        <v>22</v>
+      </c>
+      <c r="K55">
+        <v>296</v>
+      </c>
+      <c r="L55">
+        <v>495</v>
+      </c>
+      <c r="M55">
+        <v>130</v>
+      </c>
+      <c r="N55" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14">
+      <c r="A56" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56" t="s">
+        <v>371</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56" t="s">
+        <v>320</v>
+      </c>
+      <c r="F56" t="s">
+        <v>179</v>
+      </c>
+      <c r="G56" t="s">
+        <v>232</v>
+      </c>
+      <c r="H56" t="s">
+        <v>212</v>
+      </c>
+      <c r="I56" t="s">
+        <v>252</v>
+      </c>
+      <c r="J56" t="s">
+        <v>22</v>
+      </c>
+      <c r="K56">
+        <v>446</v>
+      </c>
+      <c r="L56">
+        <v>1034</v>
+      </c>
+      <c r="M56">
+        <v>99</v>
+      </c>
+      <c r="N56" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" t="s">
+        <v>319</v>
+      </c>
+      <c r="B57" t="s">
+        <v>351</v>
+      </c>
+      <c r="C57" t="s">
+        <v>266</v>
+      </c>
+      <c r="D57" t="s">
+        <v>320</v>
+      </c>
+      <c r="F57" t="s">
+        <v>321</v>
+      </c>
+      <c r="G57" t="s">
+        <v>322</v>
+      </c>
+      <c r="H57" t="s">
+        <v>323</v>
+      </c>
+      <c r="I57" t="s">
+        <v>312</v>
+      </c>
+      <c r="J57" t="s">
+        <v>324</v>
+      </c>
+      <c r="K57">
+        <v>220</v>
+      </c>
+      <c r="L57">
+        <v>550</v>
+      </c>
+      <c r="M57">
+        <v>60</v>
+      </c>
+      <c r="N57" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" t="s">
+        <v>187</v>
+      </c>
+      <c r="B58" t="s">
+        <v>351</v>
+      </c>
+      <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
+        <v>298</v>
+      </c>
+      <c r="F58" t="s">
+        <v>189</v>
+      </c>
+      <c r="G58" t="s">
+        <v>233</v>
+      </c>
+      <c r="H58" t="s">
+        <v>215</v>
+      </c>
+      <c r="I58" t="s">
+        <v>254</v>
+      </c>
+      <c r="J58" t="s">
+        <v>22</v>
+      </c>
+      <c r="K58">
+        <v>606</v>
+      </c>
+      <c r="L58">
+        <v>881</v>
+      </c>
+      <c r="M58">
+        <v>188</v>
+      </c>
+      <c r="N58" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14">
+      <c r="A59" t="s">
+        <v>158</v>
+      </c>
+      <c r="B59" t="s">
+        <v>351</v>
+      </c>
+      <c r="C59" t="s">
+        <v>269</v>
+      </c>
+      <c r="D59" t="s">
+        <v>298</v>
+      </c>
+      <c r="F59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G59" t="s">
+        <v>160</v>
+      </c>
+      <c r="H59" t="s">
+        <v>224</v>
+      </c>
+      <c r="I59" t="s">
+        <v>119</v>
+      </c>
+      <c r="J59" t="s">
+        <v>22</v>
+      </c>
+      <c r="K59">
+        <v>1071</v>
+      </c>
+      <c r="L59">
+        <v>480</v>
+      </c>
+      <c r="M59">
+        <v>44</v>
+      </c>
+      <c r="N59" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" t="s">
+        <v>82</v>
+      </c>
+      <c r="B60" t="s">
+        <v>351</v>
+      </c>
+      <c r="C60" t="s">
+        <v>266</v>
+      </c>
+      <c r="D60" t="s">
+        <v>341</v>
+      </c>
+      <c r="E60" t="s">
+        <v>84</v>
+      </c>
+      <c r="F60" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" t="s">
+        <v>86</v>
+      </c>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+      <c r="J60" t="s">
+        <v>22</v>
+      </c>
+      <c r="K60">
+        <v>341</v>
+      </c>
+      <c r="L60">
+        <v>994</v>
+      </c>
+      <c r="M60">
+        <v>67</v>
+      </c>
+      <c r="N60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" t="s">
+        <v>256</v>
+      </c>
+      <c r="B61" t="s">
+        <v>353</v>
+      </c>
+      <c r="C61" t="s">
+        <v>266</v>
+      </c>
+      <c r="D61" t="s">
+        <v>320</v>
+      </c>
+      <c r="F61" t="s">
+        <v>237</v>
+      </c>
+      <c r="G61" t="s">
+        <v>246</v>
+      </c>
+      <c r="H61" t="s">
+        <v>263</v>
+      </c>
+      <c r="I61" t="s">
+        <v>251</v>
+      </c>
+      <c r="J61" t="s">
+        <v>324</v>
+      </c>
+      <c r="K61">
+        <v>479</v>
+      </c>
+      <c r="L61">
+        <v>476</v>
+      </c>
+      <c r="M61">
+        <v>99</v>
+      </c>
+      <c r="N61" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14">
+      <c r="A62" t="s">
+        <v>116</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62" t="s">
+        <v>15</v>
+      </c>
+      <c r="D62" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62" t="s">
+        <v>117</v>
+      </c>
+      <c r="G62" t="s">
+        <v>118</v>
+      </c>
+      <c r="H62" t="s">
+        <v>199</v>
+      </c>
+      <c r="I62" t="s">
+        <v>119</v>
+      </c>
+      <c r="J62" t="s">
+        <v>22</v>
+      </c>
+      <c r="K62">
+        <v>962</v>
+      </c>
+      <c r="L62">
+        <v>750</v>
+      </c>
+      <c r="M62">
+        <v>156</v>
+      </c>
+      <c r="N62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z996"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15" customHeight="1"/>
@@ -1602,7 +4523,7 @@
         <v>75</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N7" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1659,7 +4580,7 @@
         <v>242</v>
       </c>
       <c r="M8" s="11" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="N8" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1716,7 +4637,7 @@
         <v>202</v>
       </c>
       <c r="M9" s="11" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="N9" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1771,7 +4692,7 @@
         <v>219</v>
       </c>
       <c r="M10" s="11" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="N10" s="12" t="str">
         <f t="shared" si="0"/>
@@ -1826,7 +4747,7 @@
         <v>15</v>
       </c>
       <c r="M11" s="11" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="N11" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2105,7 +5026,7 @@
         <v>75</v>
       </c>
       <c r="M16" s="11" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="N16" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2272,7 +5193,7 @@
         <v>42</v>
       </c>
       <c r="M19" s="11" t="s">
-        <v>211</v>
+        <v>198</v>
       </c>
       <c r="N19" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2329,7 +5250,7 @@
         <v>143</v>
       </c>
       <c r="M20" s="11" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="N20" s="12" t="str">
         <f t="shared" si="0"/>
@@ -2353,7 +5274,7 @@
         <v>111</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>112</v>
@@ -2421,7 +5342,7 @@
         <v>118</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>119</v>
@@ -2438,8 +5359,8 @@
       <c r="L22" s="1">
         <v>156</v>
       </c>
-      <c r="M22" s="1" t="s">
-        <v>120</v>
+      <c r="M22" t="s">
+        <v>374</v>
       </c>
       <c r="N22" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2460,7 +5381,7 @@
     </row>
     <row r="23" spans="1:26" ht="16.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>15</v>
@@ -2470,13 +5391,13 @@
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>123</v>
-      </c>
       <c r="G23" s="13" t="s">
-        <v>213</v>
+        <v>200</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>119</v>
@@ -2493,8 +5414,8 @@
       <c r="L23" s="1">
         <v>209</v>
       </c>
-      <c r="M23" s="1" t="s">
-        <v>124</v>
+      <c r="M23" t="s">
+        <v>366</v>
       </c>
       <c r="N23" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2515,7 +5436,7 @@
     </row>
     <row r="24" spans="1:26" ht="16.5" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>95</v>
@@ -2525,13 +5446,13 @@
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>214</v>
+        <v>201</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>119</v>
@@ -2548,8 +5469,8 @@
       <c r="L24" s="1">
         <v>223</v>
       </c>
-      <c r="M24" s="1" t="s">
-        <v>128</v>
+      <c r="M24" t="s">
+        <v>361</v>
       </c>
       <c r="N24" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2570,23 +5491,23 @@
     </row>
     <row r="25" spans="1:26" ht="16.5" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>119</v>
@@ -2603,8 +5524,8 @@
       <c r="L25" s="1">
         <v>63</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>132</v>
+      <c r="M25" s="6" t="s">
+        <v>129</v>
       </c>
       <c r="N25" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2625,23 +5546,23 @@
     </row>
     <row r="26" spans="1:26" ht="16.5" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>230</v>
+        <v>217</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>119</v>
@@ -2658,8 +5579,8 @@
       <c r="L26" s="1">
         <v>146</v>
       </c>
-      <c r="M26" s="1" t="s">
-        <v>136</v>
+      <c r="M26" s="6" t="s">
+        <v>133</v>
       </c>
       <c r="N26" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2680,23 +5601,23 @@
     </row>
     <row r="27" spans="1:26" ht="16.5" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>231</v>
+        <v>218</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>119</v>
@@ -2713,8 +5634,8 @@
       <c r="L27" s="1">
         <v>164</v>
       </c>
-      <c r="M27" s="1" t="s">
-        <v>140</v>
+      <c r="M27" s="6" t="s">
+        <v>137</v>
       </c>
       <c r="N27" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2735,23 +5656,23 @@
     </row>
     <row r="28" spans="1:26" ht="16.5" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>232</v>
+        <v>219</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>119</v>
@@ -2768,8 +5689,8 @@
       <c r="L28" s="1">
         <v>191</v>
       </c>
-      <c r="M28" s="1" t="s">
-        <v>144</v>
+      <c r="M28" s="6" t="s">
+        <v>141</v>
       </c>
       <c r="N28" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2790,23 +5711,23 @@
     </row>
     <row r="29" spans="1:26" ht="16.5" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C29" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>119</v>
@@ -2823,8 +5744,8 @@
       <c r="L29" s="1">
         <v>85</v>
       </c>
-      <c r="M29" s="1" t="s">
-        <v>148</v>
+      <c r="M29" s="6" t="s">
+        <v>145</v>
       </c>
       <c r="N29" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2845,7 +5766,7 @@
     </row>
     <row r="30" spans="1:26" ht="16.5" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>63</v>
@@ -2855,13 +5776,13 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>119</v>
@@ -2878,8 +5799,8 @@
       <c r="L30" s="1">
         <v>67</v>
       </c>
-      <c r="M30" s="1" t="s">
-        <v>152</v>
+      <c r="M30" s="6" t="s">
+        <v>149</v>
       </c>
       <c r="N30" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2900,23 +5821,23 @@
     </row>
     <row r="31" spans="1:26" ht="16.5" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>217</v>
+        <v>204</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>235</v>
+        <v>222</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>119</v>
@@ -2933,8 +5854,8 @@
       <c r="L31" s="1">
         <v>225</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>156</v>
+      <c r="M31" s="6" t="s">
+        <v>153</v>
       </c>
       <c r="N31" s="7" t="str">
         <f t="shared" si="0"/>
@@ -2955,23 +5876,23 @@
     </row>
     <row r="32" spans="1:26" ht="16.5" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>236</v>
+        <v>223</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>119</v>
@@ -2988,8 +5909,8 @@
       <c r="L32" s="1">
         <v>195</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>160</v>
+      <c r="M32" s="6" t="s">
+        <v>157</v>
       </c>
       <c r="N32" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3010,7 +5931,7 @@
     </row>
     <row r="33" spans="1:26" ht="16.5" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>75</v>
@@ -3020,13 +5941,13 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>119</v>
@@ -3043,8 +5964,8 @@
       <c r="L33" s="1">
         <v>44</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>164</v>
+      <c r="M33" s="6" t="s">
+        <v>161</v>
       </c>
       <c r="N33" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3065,23 +5986,23 @@
     </row>
     <row r="34" spans="1:26" ht="16.5" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G34" s="13" t="s">
-        <v>238</v>
+        <v>225</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>119</v>
@@ -3098,8 +6019,8 @@
       <c r="L34" s="1">
         <v>3</v>
       </c>
-      <c r="M34" s="1" t="s">
-        <v>168</v>
+      <c r="M34" s="6" t="s">
+        <v>165</v>
       </c>
       <c r="N34" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3120,7 +6041,7 @@
     </row>
     <row r="35" spans="1:26" ht="16.5" customHeight="1">
       <c r="A35" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>15</v>
@@ -3130,16 +6051,16 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="G35" s="13" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="H35" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>22</v>
@@ -3153,8 +6074,8 @@
       <c r="L35" s="1">
         <v>90</v>
       </c>
-      <c r="M35" s="1" t="s">
-        <v>171</v>
+      <c r="M35" t="s">
+        <v>363</v>
       </c>
       <c r="N35" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3175,7 +6096,7 @@
     </row>
     <row r="36" spans="1:26" ht="16.5" customHeight="1">
       <c r="A36" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>15</v>
@@ -3185,16 +6106,16 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>221</v>
+        <v>208</v>
       </c>
       <c r="H36" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>22</v>
@@ -3208,8 +6129,8 @@
       <c r="L36" s="1">
         <v>208</v>
       </c>
-      <c r="M36" s="1" t="s">
-        <v>174</v>
+      <c r="M36" t="s">
+        <v>362</v>
       </c>
       <c r="N36" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3230,7 +6151,7 @@
     </row>
     <row r="37" spans="1:26" ht="16.5" customHeight="1">
       <c r="A37" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>95</v>
@@ -3240,16 +6161,16 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>222</v>
+        <v>209</v>
       </c>
       <c r="H37" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I37" s="1" t="s">
         <v>22</v>
@@ -3263,8 +6184,8 @@
       <c r="L37" s="1">
         <v>248</v>
       </c>
-      <c r="M37" s="1" t="s">
-        <v>177</v>
+      <c r="M37" t="s">
+        <v>367</v>
       </c>
       <c r="N37" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3285,7 +6206,7 @@
     </row>
     <row r="38" spans="1:26" ht="16.5" customHeight="1">
       <c r="A38" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>95</v>
@@ -3295,16 +6216,16 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>223</v>
+        <v>210</v>
       </c>
       <c r="H38" s="13" t="s">
-        <v>266</v>
+        <v>253</v>
       </c>
       <c r="I38" s="1" t="s">
         <v>22</v>
@@ -3318,8 +6239,8 @@
       <c r="L38" s="1">
         <v>150</v>
       </c>
-      <c r="M38" s="1" t="s">
-        <v>180</v>
+      <c r="M38" t="s">
+        <v>356</v>
       </c>
       <c r="N38" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3340,26 +6261,26 @@
     </row>
     <row r="39" spans="1:26" ht="16.5" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>112</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H39" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I39" s="1" t="s">
         <v>22</v>
@@ -3373,8 +6294,8 @@
       <c r="L39" s="1">
         <v>57</v>
       </c>
-      <c r="M39" s="1" t="s">
-        <v>184</v>
+      <c r="M39" t="s">
+        <v>355</v>
       </c>
       <c r="N39" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3395,26 +6316,26 @@
     </row>
     <row r="40" spans="1:26" ht="16.5" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I40" s="1" t="s">
         <v>22</v>
@@ -3428,8 +6349,8 @@
       <c r="L40" s="1">
         <v>99</v>
       </c>
-      <c r="M40" s="1" t="s">
-        <v>188</v>
+      <c r="M40" t="s">
+        <v>372</v>
       </c>
       <c r="N40" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3450,26 +6371,26 @@
     </row>
     <row r="41" spans="1:26" ht="16.5" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="G41" s="13" t="s">
-        <v>226</v>
+        <v>213</v>
       </c>
       <c r="H41" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I41" s="1" t="s">
         <v>22</v>
@@ -3483,8 +6404,8 @@
       <c r="L41" s="1">
         <v>235</v>
       </c>
-      <c r="M41" s="1" t="s">
-        <v>192</v>
+      <c r="M41" t="s">
+        <v>360</v>
       </c>
       <c r="N41" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3505,26 +6426,26 @@
     </row>
     <row r="42" spans="1:26" ht="16.5" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="H42" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I42" s="1" t="s">
         <v>22</v>
@@ -3538,8 +6459,8 @@
       <c r="L42" s="1">
         <v>158</v>
       </c>
-      <c r="M42" s="1" t="s">
-        <v>195</v>
+      <c r="M42" t="s">
+        <v>369</v>
       </c>
       <c r="N42" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3560,26 +6481,26 @@
     </row>
     <row r="43" spans="1:26" ht="16.5" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="I43" s="1" t="s">
         <v>22</v>
@@ -3593,8 +6514,8 @@
       <c r="L43" s="1">
         <v>86</v>
       </c>
-      <c r="M43" s="1" t="s">
-        <v>198</v>
+      <c r="M43" t="s">
+        <v>358</v>
       </c>
       <c r="N43" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3615,26 +6536,26 @@
     </row>
     <row r="44" spans="1:26" ht="16.5" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>76</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F44" s="13" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G44" s="13" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="H44" s="13" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="I44" s="1" t="s">
         <v>22</v>
@@ -3648,8 +6569,8 @@
       <c r="L44" s="1">
         <v>188</v>
       </c>
-      <c r="M44" s="1" t="s">
-        <v>202</v>
+      <c r="M44" t="s">
+        <v>373</v>
       </c>
       <c r="N44" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3670,29 +6591,29 @@
     </row>
     <row r="45" spans="1:26" ht="16.5" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="14" t="s">
-        <v>248</v>
+        <v>235</v>
       </c>
       <c r="F45" s="13" t="s">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G45" s="13" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
       <c r="H45" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J45" s="1">
         <v>664</v>
@@ -3703,8 +6624,8 @@
       <c r="L45" s="1">
         <v>76</v>
       </c>
-      <c r="M45" s="1" t="s">
-        <v>247</v>
+      <c r="M45" s="6" t="s">
+        <v>234</v>
       </c>
       <c r="N45" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3725,29 +6646,29 @@
     </row>
     <row r="46" spans="1:26" ht="16.5" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="14" t="s">
-        <v>250</v>
+        <v>237</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>259</v>
+        <v>246</v>
       </c>
       <c r="G46" s="13" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="H46" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J46" s="1">
         <v>479</v>
@@ -3758,8 +6679,8 @@
       <c r="L46" s="1">
         <v>99</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>249</v>
+      <c r="M46" s="6" t="s">
+        <v>236</v>
       </c>
       <c r="N46" s="7" t="str">
         <f t="shared" si="0"/>
@@ -3780,29 +6701,29 @@
     </row>
     <row r="47" spans="1:26" ht="16.5" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>270</v>
+        <v>257</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="14" t="s">
-        <v>254</v>
+        <v>241</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="G47" s="13" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J47" s="1">
         <v>560</v>
@@ -3813,8 +6734,8 @@
       <c r="L47" s="1">
         <v>250</v>
       </c>
-      <c r="M47" s="4" t="s">
-        <v>253</v>
+      <c r="M47" s="6" t="s">
+        <v>240</v>
       </c>
       <c r="N47" s="7" t="str">
         <f>IF(M47&lt;&gt;"",HYPERLINK(M47, "查看圖片"),"")</f>
@@ -3835,29 +6756,29 @@
     </row>
     <row r="48" spans="1:26" ht="16.5" customHeight="1">
       <c r="A48" s="2" t="s">
-        <v>271</v>
+        <v>258</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="14" t="s">
-        <v>256</v>
+        <v>243</v>
       </c>
       <c r="F48" s="13" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="G48" s="13" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="H48" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J48" s="2">
         <v>485</v>
@@ -3868,8 +6789,8 @@
       <c r="L48" s="2">
         <v>9</v>
       </c>
-      <c r="M48" s="4" t="s">
-        <v>255</v>
+      <c r="M48" s="6" t="s">
+        <v>242</v>
       </c>
       <c r="N48" s="7" t="str">
         <f>IF(M48&lt;&gt;"",HYPERLINK(M48, "查看圖片"),"")</f>
@@ -3890,7 +6811,7 @@
     </row>
     <row r="49" spans="1:26" ht="16.5" customHeight="1">
       <c r="A49" s="2" t="s">
-        <v>272</v>
+        <v>259</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>95</v>
@@ -3900,19 +6821,19 @@
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="14" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F49" s="13" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="H49" s="13" t="s">
-        <v>264</v>
+        <v>251</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="J49" s="2">
         <v>1109</v>
@@ -3923,11 +6844,11 @@
       <c r="L49" s="2">
         <v>207</v>
       </c>
-      <c r="M49" s="1" t="s">
-        <v>251</v>
+      <c r="M49" s="6" t="s">
+        <v>238</v>
       </c>
       <c r="N49" s="7" t="str">
-        <f t="shared" ref="N49" si="1">IF(M49&lt;&gt;"",HYPERLINK(M49, "查看圖片"),"")</f>
+        <f t="shared" ref="N49:N62" si="1">IF(M49&lt;&gt;"",HYPERLINK(M49, "查看圖片"),"")</f>
         <v>查看圖片</v>
       </c>
       <c r="O49" s="4"/>
@@ -3944,22 +6865,45 @@
       <c r="Z49" s="4"/>
     </row>
     <row r="50" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A50" s="4"/>
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4"/>
-      <c r="I50" s="4"/>
-      <c r="J50" s="4"/>
-      <c r="K50" s="4"/>
-      <c r="L50" s="4"/>
-      <c r="M50" s="4"/>
+      <c r="A50" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="G50" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="H50" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J50" s="4">
+        <v>320</v>
+      </c>
+      <c r="K50" s="4">
+        <v>480</v>
+      </c>
+      <c r="L50" s="4">
+        <v>120</v>
+      </c>
+      <c r="M50" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="N50" s="7" t="str">
-        <f t="shared" ref="N50" si="2">IF(M52&lt;&gt;"",HYPERLINK(M52, "查看圖片"),"")</f>
-        <v/>
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
       </c>
       <c r="O50" s="4"/>
       <c r="P50" s="4"/>
@@ -3975,20 +6919,46 @@
       <c r="Z50" s="4"/>
     </row>
     <row r="51" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="J51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="8"/>
+      <c r="A51" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>278</v>
+      </c>
+      <c r="G51" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="H51" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J51" s="4">
+        <v>450</v>
+      </c>
+      <c r="K51" s="4">
+        <v>750</v>
+      </c>
+      <c r="L51" s="4">
+        <v>85</v>
+      </c>
+      <c r="M51" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N51" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O51" s="4"/>
       <c r="P51" s="4"/>
       <c r="Q51" s="4"/>
@@ -4003,20 +6973,46 @@
       <c r="Z51" s="4"/>
     </row>
     <row r="52" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="J52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="8"/>
+      <c r="A52" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>286</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>287</v>
+      </c>
+      <c r="H52" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J52" s="4">
+        <v>288</v>
+      </c>
+      <c r="K52" s="4">
+        <v>420</v>
+      </c>
+      <c r="L52" s="4">
+        <v>155</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>288</v>
+      </c>
+      <c r="N52" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O52" s="4"/>
       <c r="P52" s="4"/>
       <c r="Q52" s="4"/>
@@ -4031,20 +7027,46 @@
       <c r="Z52" s="4"/>
     </row>
     <row r="53" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="J53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="8"/>
+      <c r="A53" s="4" t="s">
+        <v>289</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G53" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="H53" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J53" s="4">
+        <v>350</v>
+      </c>
+      <c r="K53" s="4">
+        <v>620</v>
+      </c>
+      <c r="L53" s="4">
+        <v>90</v>
+      </c>
+      <c r="M53" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="N53" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O53" s="4"/>
       <c r="P53" s="4"/>
       <c r="Q53" s="4"/>
@@ -4059,20 +7081,46 @@
       <c r="Z53" s="4"/>
     </row>
     <row r="54" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="J54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="8"/>
+      <c r="A54" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G54" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="H54" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J54" s="4">
+        <v>380</v>
+      </c>
+      <c r="K54" s="4">
+        <v>620</v>
+      </c>
+      <c r="L54" s="4">
+        <v>90</v>
+      </c>
+      <c r="M54" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="N54" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O54" s="4"/>
       <c r="P54" s="4"/>
       <c r="Q54" s="4"/>
@@ -4087,20 +7135,46 @@
       <c r="Z54" s="4"/>
     </row>
     <row r="55" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="J55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="8"/>
+      <c r="A55" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="H55" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J55" s="4">
+        <v>520</v>
+      </c>
+      <c r="K55" s="4">
+        <v>880</v>
+      </c>
+      <c r="L55" s="4">
+        <v>75</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="N55" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O55" s="4"/>
       <c r="P55" s="4"/>
       <c r="Q55" s="4"/>
@@ -4115,20 +7189,46 @@
       <c r="Z55" s="4"/>
     </row>
     <row r="56" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="J56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="8"/>
+      <c r="A56" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F56" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="H56" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J56" s="4">
+        <v>256</v>
+      </c>
+      <c r="K56" s="4">
+        <v>399</v>
+      </c>
+      <c r="L56" s="4">
+        <v>180</v>
+      </c>
+      <c r="M56" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="N56" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O56" s="4"/>
       <c r="P56" s="4"/>
       <c r="Q56" s="4"/>
@@ -4143,20 +7243,46 @@
       <c r="Z56" s="4"/>
     </row>
     <row r="57" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="J57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="8"/>
+      <c r="A57" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="F57" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="H57" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="J57" s="4">
+        <v>296</v>
+      </c>
+      <c r="K57" s="4">
+        <v>495</v>
+      </c>
+      <c r="L57" s="4">
+        <v>130</v>
+      </c>
+      <c r="M57" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="N57" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O57" s="4"/>
       <c r="P57" s="4"/>
       <c r="Q57" s="4"/>
@@ -4171,20 +7297,46 @@
       <c r="Z57" s="4"/>
     </row>
     <row r="58" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="J58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="8"/>
+      <c r="A58" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F58" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="H58" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J58" s="4">
+        <v>220</v>
+      </c>
+      <c r="K58" s="4">
+        <v>550</v>
+      </c>
+      <c r="L58" s="4">
+        <v>60</v>
+      </c>
+      <c r="M58" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N58" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O58" s="4"/>
       <c r="P58" s="4"/>
       <c r="Q58" s="4"/>
@@ -4199,20 +7351,46 @@
       <c r="Z58" s="4"/>
     </row>
     <row r="59" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="8"/>
+      <c r="A59" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F59" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="G59" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="H59" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J59" s="4">
+        <v>180</v>
+      </c>
+      <c r="K59" s="4">
+        <v>280</v>
+      </c>
+      <c r="L59" s="4">
+        <v>200</v>
+      </c>
+      <c r="M59" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="N59" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O59" s="4"/>
       <c r="P59" s="4"/>
       <c r="Q59" s="4"/>
@@ -4227,20 +7405,46 @@
       <c r="Z59" s="4"/>
     </row>
     <row r="60" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="8"/>
+      <c r="A60" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="F60" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="G60" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="H60" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I60" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J60" s="4">
+        <v>410</v>
+      </c>
+      <c r="K60" s="4">
+        <v>680</v>
+      </c>
+      <c r="L60" s="4">
+        <v>95</v>
+      </c>
+      <c r="M60" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="N60" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O60" s="4"/>
       <c r="P60" s="4"/>
       <c r="Q60" s="4"/>
@@ -4255,20 +7459,46 @@
       <c r="Z60" s="4"/>
     </row>
     <row r="61" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="8"/>
+      <c r="A61" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="C61" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F61" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="H61" s="4" t="s">
+        <v>280</v>
+      </c>
+      <c r="I61" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J61" s="4">
+        <v>370</v>
+      </c>
+      <c r="K61" s="4">
+        <v>720</v>
+      </c>
+      <c r="L61" s="4">
+        <v>70</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="N61" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O61" s="4"/>
       <c r="P61" s="4"/>
       <c r="Q61" s="4"/>
@@ -4283,20 +7513,46 @@
       <c r="Z61" s="4"/>
     </row>
     <row r="62" spans="1:26" ht="16.5" customHeight="1">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="8"/>
+      <c r="A62" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>276</v>
+      </c>
+      <c r="C62" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F62" s="13" t="s">
+        <v>348</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="H62" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="I62" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="J62" s="4">
+        <v>490</v>
+      </c>
+      <c r="K62" s="4">
+        <v>850</v>
+      </c>
+      <c r="L62" s="4">
+        <v>50</v>
+      </c>
+      <c r="M62" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N62" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>查看圖片</v>
+      </c>
       <c r="O62" s="4"/>
       <c r="P62" s="4"/>
       <c r="Q62" s="4"/>
@@ -4323,7 +7579,7 @@
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="4"/>
+      <c r="M63" s="6"/>
       <c r="N63" s="8"/>
       <c r="O63" s="4"/>
       <c r="P63" s="4"/>
@@ -30469,7 +33725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N1000"/>
   <sheetViews>
@@ -30490,10 +33746,10 @@
       </c>
       <c r="B1" s="9" t="str">
         <f ca="1">"999-000-" &amp; TEXT(RANDBETWEEN(0,999999),"000000") &amp; "-" &amp; RANDBETWEEN(0,9)</f>
-        <v>999-000-811094-0</v>
+        <v>999-000-607148-6</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="16.5" customHeight="1"/>
@@ -30503,7 +33759,7 @@
     <row r="6" spans="1:14" ht="16.5" customHeight="1"/>
     <row r="7" spans="1:14" ht="16.5" customHeight="1">
       <c r="A7" s="15" t="s">
-        <v>273</v>
+        <v>260</v>
       </c>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
@@ -30526,7 +33782,7 @@
       </c>
       <c r="M7" s="15"/>
       <c r="N7" s="16" t="s">
-        <v>274</v>
+        <v>261</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="16.5" customHeight="1"/>
